--- a/Analyzer Results/RESULTS_TT_MERGED.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED.xlsx
@@ -521,16 +521,16 @@
         <v>18.66666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07812389447478973</v>
+        <v>62.66666666666666</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07000476630202458</v>
+        <v>15.27333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7893166225550368</v>
+        <v>167.1766666666666</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09636876094535342</v>
+        <v>6039.349999999999</v>
       </c>
     </row>
     <row r="3">
@@ -564,16 +564,16 @@
         <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>0.013402267034045</v>
+        <v>38</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008735440980180384</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2378655730613465</v>
+        <v>87.13</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01995427587620617</v>
+        <v>3744.3</v>
       </c>
     </row>
     <row r="4">
@@ -607,16 +607,16 @@
         <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1455140193232613</v>
+        <v>77</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1889538974071496</v>
+        <v>21.31</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8417193265988379</v>
+        <v>180.23</v>
       </c>
       <c r="K4" t="n">
-        <v>0.249387960059483</v>
+        <v>8599.23</v>
       </c>
     </row>
     <row r="5">
@@ -650,16 +650,16 @@
         <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1197471538576707</v>
+        <v>72</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1837499504271979</v>
+        <v>21.09</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9251781158885234</v>
+        <v>211.58</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2713374643884379</v>
+        <v>8914.52</v>
       </c>
     </row>
     <row r="6">
@@ -693,16 +693,16 @@
         <v>18</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08351710248474715</v>
+        <v>64</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09745549040152587</v>
+        <v>16.95</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7692984263064687</v>
+        <v>162.86</v>
       </c>
       <c r="K6" t="n">
-        <v>0.133246663717413</v>
+        <v>6755.05</v>
       </c>
     </row>
     <row r="7">
@@ -736,16 +736,16 @@
         <v>18</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1297838625217382</v>
+        <v>74</v>
       </c>
       <c r="I7" t="n">
-        <v>0.164384262584797</v>
+        <v>20.25</v>
       </c>
       <c r="J7" t="n">
-        <v>0.875472033970678</v>
+        <v>190.65</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2312764206213359</v>
+        <v>8334.049999999999</v>
       </c>
     </row>
     <row r="8">
@@ -779,16 +779,16 @@
         <v>18</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1124669925811939</v>
+        <v>70.5</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1406640989670253</v>
+        <v>19.165</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8230063698795475</v>
+        <v>175.22</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1860295727701594</v>
+        <v>7643.32</v>
       </c>
     </row>
     <row r="9">
@@ -822,16 +822,16 @@
         <v>22</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5406769841351631</v>
+        <v>138</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5780734696671821</v>
+        <v>36.18</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6927404860425566</v>
+        <v>148.53</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5724827725908535</v>
+        <v>13209.68</v>
       </c>
     </row>
     <row r="10">
@@ -865,16 +865,16 @@
         <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4529783679006377</v>
+        <v>124.5</v>
       </c>
       <c r="I10" t="n">
-        <v>0.498413619265365</v>
+        <v>33</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5007631471359675</v>
+        <v>120.545</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4893332519130724</v>
+        <v>11961.16</v>
       </c>
     </row>
     <row r="11">
@@ -908,16 +908,16 @@
         <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7164208793925828</v>
+        <v>170</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6808515544660789</v>
+        <v>40.82</v>
       </c>
       <c r="J11" t="n">
-        <v>0.313065091662899</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.581475001850256</v>
+        <v>13351.68</v>
       </c>
     </row>
     <row r="12">
@@ -951,16 +951,16 @@
         <v>20</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5469151387300354</v>
+        <v>139</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5849980676344241</v>
+        <v>36.47</v>
       </c>
       <c r="J12" t="n">
-        <v>0.528828819209691</v>
+        <v>124.24</v>
       </c>
       <c r="K12" t="n">
-        <v>0.581388745337899</v>
+        <v>13350.31</v>
       </c>
     </row>
     <row r="13">
@@ -994,16 +994,16 @@
         <v>42</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9558484283212609</v>
+        <v>266</v>
       </c>
       <c r="I13" t="n">
-        <v>0.978838673221525</v>
+        <v>74.81999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6069305296128062</v>
+        <v>135.09</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9606537828944168</v>
+        <v>25421.91</v>
       </c>
     </row>
     <row r="14">
@@ -1037,16 +1037,16 @@
         <v>20</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6973769870061555</v>
+        <v>166</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7345753536520458</v>
+        <v>43.65</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5317525092934128</v>
+        <v>124.63</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7643088889835461</v>
+        <v>16802.99</v>
       </c>
     </row>
     <row r="15">
@@ -1080,16 +1080,16 @@
         <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5774669366218765</v>
+        <v>144</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5976075719531218</v>
+        <v>37.005</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4625038173823291</v>
+        <v>115.625</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6026868719127961</v>
+        <v>13693.54</v>
       </c>
     </row>
     <row r="16">
@@ -1123,16 +1123,16 @@
         <v>20</v>
       </c>
       <c r="H16" t="n">
-        <v>0.760225098760943</v>
+        <v>180</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7304696333885465</v>
+        <v>43.42</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6050757199175727</v>
+        <v>134.82</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7339621978674791</v>
+        <v>16123.5</v>
       </c>
     </row>
     <row r="17">
@@ -1166,16 +1166,16 @@
         <v>8</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5531119176601835</v>
+        <v>140</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5539788528575602</v>
+        <v>35.19</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3031284438652257</v>
+        <v>95.64</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5995378355135785</v>
+        <v>13642.14</v>
       </c>
     </row>
     <row r="18">
@@ -1209,16 +1209,16 @@
         <v>28</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2279553092289391</v>
+        <v>91</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1999996119130077</v>
+        <v>21.77</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5516997780785607</v>
+        <v>127.32</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2144376947496126</v>
+        <v>8082.37</v>
       </c>
     </row>
     <row r="19">
@@ -1252,16 +1252,16 @@
         <v>42</v>
       </c>
       <c r="H19" t="n">
-        <v>0.000618001190692936</v>
+        <v>18</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001394987848942104</v>
+        <v>5.52</v>
       </c>
       <c r="J19" t="n">
-        <v>0.924364916591723</v>
+        <v>211.15</v>
       </c>
       <c r="K19" t="n">
-        <v>0.003650279687239192</v>
+        <v>2385.02</v>
       </c>
     </row>
     <row r="20">
@@ -1295,16 +1295,16 @@
         <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3680701292223655</v>
+        <v>112</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3311133224549102</v>
+        <v>26.8</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2869283986851938</v>
+        <v>93.56999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3697592287197507</v>
+        <v>10284.91</v>
       </c>
     </row>
     <row r="21">
@@ -1338,16 +1338,16 @@
         <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>0.30676546248949</v>
+        <v>103</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3197020622316093</v>
+        <v>26.38</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5445519984751002</v>
+        <v>126.35</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3495626215167593</v>
+        <v>10006.42</v>
       </c>
     </row>
     <row r="22">
@@ -1381,16 +1381,16 @@
         <v>42</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5714447303231237</v>
+        <v>143</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5916244624301024</v>
+        <v>36.75</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3064348538413577</v>
+        <v>96.06</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3817133308030357</v>
+        <v>10449.78</v>
       </c>
     </row>
     <row r="23">
@@ -1424,16 +1424,16 @@
         <v>10</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1910093108100815</v>
+        <v>85</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2149687059329025</v>
+        <v>22.38</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5936360659759283</v>
+        <v>133.17</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2935079705164148</v>
+        <v>9227.84</v>
       </c>
     </row>
     <row r="24">
@@ -1467,16 +1467,16 @@
         <v>25</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6671818042687055</v>
+        <v>160</v>
       </c>
       <c r="I24" t="n">
-        <v>0.680345928949676</v>
+        <v>40.795</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2648567698065644</v>
+        <v>90.70999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5960578818620916</v>
+        <v>13585.61</v>
       </c>
     </row>
     <row r="25">
@@ -1510,16 +1510,16 @@
         <v>20</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3000259222145004</v>
+        <v>102</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3633266844665196</v>
+        <v>27.98</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8553745202249934</v>
+        <v>184.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4528697221297767</v>
+        <v>11440.56</v>
       </c>
     </row>
     <row r="26">
@@ -1553,16 +1553,16 @@
         <v>20</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1850670543596059</v>
+        <v>84</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2730433164087896</v>
+        <v>24.64</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9084279685722949</v>
+        <v>203.45</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3560282072819885</v>
+        <v>10095.6</v>
       </c>
     </row>
     <row r="27">
@@ -1596,16 +1596,16 @@
         <v>12</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06608844604878432</v>
+        <v>59.5</v>
       </c>
       <c r="I27" t="n">
-        <v>0.05538643699972429</v>
+        <v>14.23</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4687839913038592</v>
+        <v>116.425</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0751675922380643</v>
+        <v>5565.235</v>
       </c>
     </row>
     <row r="28">
@@ -1639,16 +1639,16 @@
         <v>18</v>
       </c>
       <c r="H28" t="n">
-        <v>0.247145638673473</v>
+        <v>94</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3532103764695346</v>
+        <v>27.61</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7640238009680996</v>
+        <v>161.77</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4542275273128226</v>
+        <v>11459.74</v>
       </c>
     </row>
     <row r="29">
@@ -1682,16 +1682,16 @@
         <v>20</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08768654862635515</v>
+        <v>65</v>
       </c>
       <c r="I29" t="n">
-        <v>0.07343404777429079</v>
+        <v>15.5</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5186496097542752</v>
+        <v>122.89</v>
       </c>
       <c r="K29" t="n">
-        <v>0.08537489654699705</v>
+        <v>5801.06</v>
       </c>
     </row>
     <row r="30">
@@ -1725,16 +1725,16 @@
         <v>20</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2536317463491668</v>
+        <v>95</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2484526724106809</v>
+        <v>23.7</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6123294640527082</v>
+        <v>135.88</v>
       </c>
       <c r="K30" t="n">
-        <v>0.289848167347907</v>
+        <v>9176.41</v>
       </c>
     </row>
     <row r="31">
@@ -1768,16 +1768,16 @@
         <v>18</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1297838625217382</v>
+        <v>74</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1213223753514484</v>
+        <v>18.22</v>
       </c>
       <c r="J31" t="n">
-        <v>0.6356677134131722</v>
+        <v>139.37</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1526864298628716</v>
+        <v>7096.2</v>
       </c>
     </row>
     <row r="32">
@@ -1811,16 +1811,16 @@
         <v>20</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07549915898681184</v>
+        <v>62</v>
       </c>
       <c r="I32" t="n">
-        <v>0.07700512777277319</v>
+        <v>15.73</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6534505238763425</v>
+        <v>142.12</v>
       </c>
       <c r="K32" t="n">
-        <v>0.09640441894643541</v>
+        <v>6040.1</v>
       </c>
     </row>
     <row r="33">
@@ -1854,16 +1854,16 @@
         <v>18</v>
       </c>
       <c r="H33" t="n">
-        <v>0.09634053303072766</v>
+        <v>67</v>
       </c>
       <c r="I33" t="n">
-        <v>0.09358343117366422</v>
+        <v>16.73</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4500828542249677</v>
+        <v>114.05</v>
       </c>
       <c r="K33" t="n">
-        <v>0.08208926717004737</v>
+        <v>5726.84</v>
       </c>
     </row>
     <row r="34">
@@ -1897,16 +1897,16 @@
         <v>22</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04782367465668771</v>
+        <v>54</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04330360775407936</v>
+        <v>13.24</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4677256645598578</v>
+        <v>116.29</v>
       </c>
       <c r="K34" t="n">
-        <v>0.05256008520770319</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="35">
@@ -1940,16 +1940,16 @@
         <v>20</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1247191735807577</v>
+        <v>73</v>
       </c>
       <c r="I35" t="n">
-        <v>0.166419291516307</v>
+        <v>20.34</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6354707299819184</v>
+        <v>139.34</v>
       </c>
       <c r="K35" t="n">
-        <v>0.192052705530263</v>
+        <v>7738.17</v>
       </c>
     </row>
     <row r="36">
@@ -1983,16 +1983,16 @@
         <v>18</v>
       </c>
       <c r="H36" t="n">
-        <v>0.025167594260932</v>
+        <v>45</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02811466949525033</v>
+        <v>11.72</v>
       </c>
       <c r="J36" t="n">
-        <v>0.6728347246160047</v>
+        <v>145.22</v>
       </c>
       <c r="K36" t="n">
-        <v>0.03636202711152702</v>
+        <v>4449.28</v>
       </c>
     </row>
     <row r="37">
@@ -2026,16 +2026,16 @@
         <v>20</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1008224172126808</v>
+        <v>68</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1037782987449943</v>
+        <v>17.3</v>
       </c>
       <c r="J37" t="n">
-        <v>0.6775996853429168</v>
+        <v>146</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1131029973484433</v>
+        <v>6377.62</v>
       </c>
     </row>
     <row r="38">
@@ -2069,16 +2069,16 @@
         <v>18</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1791929676732346</v>
+        <v>83</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1390825225904167</v>
+        <v>19.09</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2454743746379322</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1177805341904533</v>
+        <v>6467.83</v>
       </c>
     </row>
     <row r="39">
@@ -2112,16 +2112,16 @@
         <v>20</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1509291470935811</v>
+        <v>78</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1359429063346537</v>
+        <v>18.94</v>
       </c>
       <c r="J39" t="n">
-        <v>0.680086069177384</v>
+        <v>146.41</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1510996292043587</v>
+        <v>7069.06</v>
       </c>
     </row>
     <row r="40">
@@ -2155,16 +2155,16 @@
         <v>20</v>
       </c>
       <c r="H40" t="n">
-        <v>0.08768654862635515</v>
+        <v>65</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1046976741250972</v>
+        <v>17.35</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5834374935124307</v>
+        <v>131.72</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1089505576366476</v>
+        <v>6296.06</v>
       </c>
     </row>
     <row r="41">
@@ -2198,16 +2198,16 @@
         <v>20</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1564265271345631</v>
+        <v>79</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1426785765197962</v>
+        <v>19.26</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3119585092036666</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1263062193665878</v>
+        <v>6628.12</v>
       </c>
     </row>
     <row r="42">
@@ -2241,16 +2241,16 @@
         <v>19</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3475536352674043</v>
+        <v>109</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3871186768929964</v>
+        <v>28.85</v>
       </c>
       <c r="J42" t="n">
-        <v>0.872369867323384</v>
+        <v>189.6</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4767828810132446</v>
+        <v>11780.58</v>
       </c>
     </row>
     <row r="43">
@@ -2284,16 +2284,16 @@
         <v>20</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7950897369466821</v>
+        <v>189</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9338586179996102</v>
+        <v>61.9</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9157739470561773</v>
+        <v>206.84</v>
       </c>
       <c r="K43" t="n">
-        <v>0.9793164492219049</v>
+        <v>28160.15</v>
       </c>
     </row>
     <row r="44">
@@ -2327,16 +2327,16 @@
         <v>8</v>
       </c>
       <c r="H44" t="n">
-        <v>0.7877064773645049</v>
+        <v>187</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7860800848518359</v>
+        <v>46.79</v>
       </c>
       <c r="J44" t="n">
-        <v>0.274762672503703</v>
+        <v>92</v>
       </c>
       <c r="K44" t="n">
-        <v>0.862166209458641</v>
+        <v>19613.36</v>
       </c>
     </row>
     <row r="45">
@@ -2370,16 +2370,16 @@
         <v>20</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7950897369466821</v>
+        <v>189</v>
       </c>
       <c r="I45" t="n">
-        <v>0.906019525939303</v>
+        <v>57.63500000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9090440090440552</v>
+        <v>203.725</v>
       </c>
       <c r="K45" t="n">
-        <v>0.9559046221900004</v>
+        <v>24923.13</v>
       </c>
     </row>
     <row r="46">
@@ -2413,16 +2413,16 @@
         <v>18</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5343984419102108</v>
+        <v>137</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5467926790546938</v>
+        <v>34.9</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4546652396854177</v>
+        <v>114.63</v>
       </c>
       <c r="K46" t="n">
-        <v>0.6084688495926387</v>
+        <v>13788.54</v>
       </c>
     </row>
     <row r="47">
@@ -2456,16 +2456,16 @@
         <v>20</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2092203946698998</v>
+        <v>88</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3401044490720955</v>
+        <v>27.13</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8899645968247072</v>
+        <v>195.87</v>
       </c>
       <c r="K47" t="n">
-        <v>0.501890021408734</v>
+        <v>12143.53</v>
       </c>
     </row>
     <row r="48">
@@ -2499,16 +2499,16 @@
         <v>18</v>
       </c>
       <c r="H48" t="n">
-        <v>0.02318760978863866</v>
+        <v>44</v>
       </c>
       <c r="I48" t="n">
-        <v>0.01675350777672228</v>
+        <v>10.19</v>
       </c>
       <c r="J48" t="n">
-        <v>0.5627935394549628</v>
+        <v>128.84</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0291128858992099</v>
+        <v>4169.25</v>
       </c>
     </row>
     <row r="49">
@@ -2542,16 +2542,16 @@
         <v>44</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5217243535158982</v>
+        <v>135</v>
       </c>
       <c r="I49" t="n">
-        <v>0.5906814478940349</v>
+        <v>36.71</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3990422959274192</v>
+        <v>107.65</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4943901504792815</v>
+        <v>12034.39</v>
       </c>
     </row>
     <row r="50">
@@ -2585,16 +2585,16 @@
         <v>18</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4226462200750478</v>
+        <v>120</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5256701014110413</v>
+        <v>34.06</v>
       </c>
       <c r="J50" t="n">
-        <v>0.6781465573632682</v>
+        <v>146.09</v>
       </c>
       <c r="K50" t="n">
-        <v>0.6002589761004593</v>
+        <v>13653.89</v>
       </c>
     </row>
     <row r="51">
@@ -2628,16 +2628,16 @@
         <v>20</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3817528880645364</v>
+        <v>114</v>
       </c>
       <c r="I51" t="n">
-        <v>0.4160137548477454</v>
+        <v>29.91</v>
       </c>
       <c r="J51" t="n">
-        <v>0.5893619831678383</v>
+        <v>132.56</v>
       </c>
       <c r="K51" t="n">
-        <v>0.5001472304467132</v>
+        <v>12118.11</v>
       </c>
     </row>
     <row r="52">
@@ -2671,16 +2671,16 @@
         <v>18</v>
       </c>
       <c r="H52" t="n">
-        <v>0.08351710248474715</v>
+        <v>64</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1052512165004295</v>
+        <v>17.38</v>
       </c>
       <c r="J52" t="n">
-        <v>0.7615005484609678</v>
+        <v>161.255</v>
       </c>
       <c r="K52" t="n">
-        <v>0.1933877751439494</v>
+        <v>7759.055</v>
       </c>
     </row>
     <row r="53">
@@ -2714,16 +2714,16 @@
         <v>28</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00774843005484639</v>
+        <v>33</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0214829787499158</v>
+        <v>10.89</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9999864443792702</v>
+        <v>486.57</v>
       </c>
       <c r="K53" t="n">
-        <v>0.07764446821950148</v>
+        <v>5623.93</v>
       </c>
     </row>
     <row r="54">
@@ -2757,16 +2757,16 @@
         <v>19</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1509291470935811</v>
+        <v>78</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1522773181619014</v>
+        <v>19.705</v>
       </c>
       <c r="J54" t="n">
-        <v>0.6262408387221741</v>
+        <v>137.945</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2393607537179551</v>
+        <v>8453.055</v>
       </c>
     </row>
     <row r="55">
@@ -2800,16 +2800,16 @@
         <v>20</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2185266351275392</v>
+        <v>89.5</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2391871996623212</v>
+        <v>23.34</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5906958188899746</v>
+        <v>132.75</v>
       </c>
       <c r="K55" t="n">
-        <v>0.3218156529939828</v>
+        <v>9622.700000000001</v>
       </c>
     </row>
     <row r="56">
@@ -2843,16 +2843,16 @@
         <v>20</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9637597807313051</v>
+        <v>275</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9353974500850244</v>
+        <v>62.18</v>
       </c>
       <c r="J56" t="n">
-        <v>0.2144039518451751</v>
+        <v>83.92</v>
       </c>
       <c r="K56" t="n">
-        <v>0.8650703589444615</v>
+        <v>19719.56</v>
       </c>
     </row>
     <row r="57">
@@ -2886,16 +2886,16 @@
         <v>20</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8919226558183116</v>
+        <v>223</v>
       </c>
       <c r="I57" t="n">
-        <v>0.8725208509591061</v>
+        <v>53.78</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1897763676569988</v>
+        <v>80.42</v>
       </c>
       <c r="K57" t="n">
-        <v>0.7694198855296746</v>
+        <v>16923.88</v>
       </c>
     </row>
     <row r="58">
@@ -2929,16 +2929,16 @@
         <v>20</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9649436737341524</v>
+        <v>276.5</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9001386107343252</v>
+        <v>56.88</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1174170327189238</v>
+        <v>68.86</v>
       </c>
       <c r="K58" t="n">
-        <v>0.7467820234525686</v>
+        <v>16403.045</v>
       </c>
     </row>
     <row r="59">
@@ -2972,16 +2972,16 @@
         <v>20</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9249235181049312</v>
+        <v>241</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9073385881287005</v>
+        <v>57.81</v>
       </c>
       <c r="J59" t="n">
-        <v>0.3650040463369747</v>
+        <v>103.41</v>
       </c>
       <c r="K59" t="n">
-        <v>0.8561782086823685</v>
+        <v>19400.23</v>
       </c>
     </row>
     <row r="60">
@@ -3015,16 +3015,16 @@
         <v>40</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9390886033813015</v>
+        <v>251</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9417829345640751</v>
+        <v>63.41</v>
       </c>
       <c r="J60" t="n">
-        <v>0.136789015177256</v>
+        <v>72.20999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>0.7454543150575762</v>
+        <v>16373.61</v>
       </c>
     </row>
     <row r="61">
@@ -3058,16 +3058,16 @@
         <v>21</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9272204040500913</v>
+        <v>242.5</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9101470701089787</v>
+        <v>58.19</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2159147364848874</v>
+        <v>84.13</v>
       </c>
       <c r="K61" t="n">
-        <v>0.8322452098330322</v>
+        <v>18616.355</v>
       </c>
     </row>
     <row r="62">
@@ -3101,16 +3101,16 @@
         <v>20</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9133307756468356</v>
+        <v>234</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9198583730367068</v>
+        <v>59.59</v>
       </c>
       <c r="J62" t="n">
-        <v>0.3123536485259667</v>
+        <v>96.81</v>
       </c>
       <c r="K62" t="n">
-        <v>0.8827573986183906</v>
+        <v>20411.98</v>
       </c>
     </row>
     <row r="63">
@@ -3144,16 +3144,16 @@
         <v>20</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5280805413722846</v>
+        <v>136</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4097595124686085</v>
+        <v>29.68</v>
       </c>
       <c r="J63" t="n">
-        <v>0.208895192415286</v>
+        <v>83.15000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2084293769320147</v>
+        <v>7991.16</v>
       </c>
     </row>
     <row r="64">
@@ -3187,16 +3187,16 @@
         <v>20</v>
       </c>
       <c r="H64" t="n">
-        <v>0.3885895339814385</v>
+        <v>115</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1744257992831124</v>
+        <v>20.69</v>
       </c>
       <c r="J64" t="n">
-        <v>0.03909064552619783</v>
+        <v>50.61</v>
       </c>
       <c r="K64" t="n">
-        <v>0.05604748437060453</v>
+        <v>5071.71</v>
       </c>
     </row>
     <row r="65">
@@ -3230,16 +3230,16 @@
         <v>8</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5280805413722846</v>
+        <v>136</v>
       </c>
       <c r="I65" t="n">
-        <v>0.4162854327702449</v>
+        <v>29.92</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1122942424396856</v>
+        <v>67.93000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>0.3189044191499306</v>
+        <v>9582.290000000001</v>
       </c>
     </row>
     <row r="66">
@@ -3273,16 +3273,16 @@
         <v>10</v>
       </c>
       <c r="H66" t="n">
-        <v>0.612615280441246</v>
+        <v>150</v>
       </c>
       <c r="I66" t="n">
-        <v>0.446282406607482</v>
+        <v>31.03</v>
       </c>
       <c r="J66" t="n">
-        <v>0.176611563007233</v>
+        <v>78.48</v>
       </c>
       <c r="K66" t="n">
-        <v>0.3189317827014819</v>
+        <v>9582.67</v>
       </c>
     </row>
     <row r="67">
@@ -3316,16 +3316,16 @@
         <v>8</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4294190280192569</v>
+        <v>121</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2262270897889445</v>
+        <v>22.83</v>
       </c>
       <c r="J67" t="n">
-        <v>0.04099419845310108</v>
+        <v>51.24</v>
       </c>
       <c r="K67" t="n">
-        <v>0.104815597447301</v>
+        <v>6213.36</v>
       </c>
     </row>
     <row r="68">
@@ -3359,16 +3359,16 @@
         <v>8</v>
       </c>
       <c r="H68" t="n">
-        <v>0.612615280441246</v>
+        <v>150</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3838388471454209</v>
+        <v>28.73</v>
       </c>
       <c r="J68" t="n">
-        <v>0.09153863537025608</v>
+        <v>63.92</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2345167313536962</v>
+        <v>8381.879999999999</v>
       </c>
     </row>
     <row r="69">
@@ -3402,16 +3402,16 @@
         <v>8</v>
       </c>
       <c r="H69" t="n">
-        <v>0.559266373751734</v>
+        <v>141</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3868454006107139</v>
+        <v>28.84</v>
       </c>
       <c r="J69" t="n">
-        <v>0.05136845722203588</v>
+        <v>54.39</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2375477062036672</v>
+        <v>8426.459999999999</v>
       </c>
     </row>
     <row r="70">
@@ -3445,16 +3445,16 @@
         <v>12</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5427609061519029</v>
+        <v>138.3333333333333</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3159982619844779</v>
+        <v>26.24333333333333</v>
       </c>
       <c r="J70" t="n">
-        <v>0.06671969240218893</v>
+        <v>58.41333333333333</v>
       </c>
       <c r="K70" t="n">
-        <v>0.1414971049128169</v>
+        <v>6902.243333333333</v>
       </c>
     </row>
     <row r="71">
@@ -3488,16 +3488,16 @@
         <v>19</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6513595231315927</v>
+        <v>157</v>
       </c>
       <c r="I71" t="n">
-        <v>0.7990282856011184</v>
+        <v>47.67</v>
       </c>
       <c r="J71" t="n">
-        <v>0.7594526824461659</v>
+        <v>160.84</v>
       </c>
       <c r="K71" t="n">
-        <v>0.8632145367333568</v>
+        <v>19651.475</v>
       </c>
     </row>
     <row r="72">
@@ -3531,16 +3531,16 @@
         <v>18</v>
       </c>
       <c r="H72" t="n">
-        <v>0.5893734625824757</v>
+        <v>146</v>
       </c>
       <c r="I72" t="n">
-        <v>0.6564006155056522</v>
+        <v>39.64</v>
       </c>
       <c r="J72" t="n">
-        <v>0.383229533563987</v>
+        <v>105.68</v>
       </c>
       <c r="K72" t="n">
-        <v>0.6839185566929242</v>
+        <v>15117.76</v>
       </c>
     </row>
     <row r="73">
@@ -3574,16 +3574,16 @@
         <v>20</v>
       </c>
       <c r="H73" t="n">
-        <v>0.6459796712732155</v>
+        <v>156</v>
       </c>
       <c r="I73" t="n">
-        <v>0.7281286510829961</v>
+        <v>43.29</v>
       </c>
       <c r="J73" t="n">
-        <v>0.5818075483953473</v>
+        <v>131.49</v>
       </c>
       <c r="K73" t="n">
-        <v>0.792992427131247</v>
+        <v>17509.99</v>
       </c>
     </row>
     <row r="74">
@@ -3617,16 +3617,16 @@
         <v>20</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2601582874164414</v>
+        <v>96</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1980630869455322</v>
+        <v>21.69</v>
       </c>
       <c r="J74" t="n">
-        <v>0.3263078246917128</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="K74" t="n">
-        <v>0.2290675371019623</v>
+        <v>8301.34</v>
       </c>
     </row>
     <row r="75">
@@ -3660,16 +3660,16 @@
         <v>20</v>
       </c>
       <c r="H75" t="n">
-        <v>0.7345927640752309</v>
+        <v>174</v>
       </c>
       <c r="I75" t="n">
-        <v>0.7597346830956472</v>
+        <v>45.12</v>
       </c>
       <c r="J75" t="n">
-        <v>0.5560947220973109</v>
+        <v>127.92</v>
       </c>
       <c r="K75" t="n">
-        <v>0.7889419401407147</v>
+        <v>17405.68</v>
       </c>
     </row>
     <row r="76">
@@ -3703,16 +3703,16 @@
         <v>20</v>
       </c>
       <c r="H76" t="n">
-        <v>0.6295275462633472</v>
+        <v>153</v>
       </c>
       <c r="I76" t="n">
-        <v>0.6606285859347103</v>
+        <v>39.84</v>
       </c>
       <c r="J76" t="n">
-        <v>0.4753162693079952</v>
+        <v>117.26</v>
       </c>
       <c r="K76" t="n">
-        <v>0.678279377146462</v>
+        <v>15011.63</v>
       </c>
     </row>
     <row r="77">
@@ -3746,16 +3746,16 @@
         <v>20</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3749124032838325</v>
+        <v>113</v>
       </c>
       <c r="I77" t="n">
-        <v>0.4543244916213464</v>
+        <v>31.33</v>
       </c>
       <c r="J77" t="n">
-        <v>0.6237364293215122</v>
+        <v>137.57</v>
       </c>
       <c r="K77" t="n">
-        <v>0.5720476455249452</v>
+        <v>13202.85</v>
       </c>
     </row>
     <row r="78">
@@ -3789,16 +3789,16 @@
         <v>20</v>
       </c>
       <c r="H78" t="n">
-        <v>0.6239406435323539</v>
+        <v>152</v>
       </c>
       <c r="I78" t="n">
-        <v>0.6426442818977041</v>
+        <v>39</v>
       </c>
       <c r="J78" t="n">
-        <v>0.5407732122508149</v>
+        <v>125.84</v>
       </c>
       <c r="K78" t="n">
-        <v>0.6685036143309526</v>
+        <v>14830.6</v>
       </c>
     </row>
     <row r="79">
@@ -3832,16 +3832,16 @@
         <v>20</v>
       </c>
       <c r="H79" t="n">
-        <v>0.6295275462633472</v>
+        <v>153</v>
       </c>
       <c r="I79" t="n">
-        <v>0.7252272391560538</v>
+        <v>43.13</v>
       </c>
       <c r="J79" t="n">
-        <v>0.526875406374352</v>
+        <v>123.98</v>
       </c>
       <c r="K79" t="n">
-        <v>0.7662689165390095</v>
+        <v>16849.11</v>
       </c>
     </row>
     <row r="80">
@@ -3875,16 +3875,16 @@
         <v>20</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5774669366218765</v>
+        <v>144</v>
       </c>
       <c r="I80" t="n">
-        <v>0.6568249393165626</v>
+        <v>39.66</v>
       </c>
       <c r="J80" t="n">
-        <v>0.6950313993519235</v>
+        <v>148.92</v>
       </c>
       <c r="K80" t="n">
-        <v>0.7744289458778927</v>
+        <v>17044.38</v>
       </c>
     </row>
     <row r="81">
@@ -3918,16 +3918,16 @@
         <v>24</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3101431194807795</v>
+        <v>103.5</v>
       </c>
       <c r="I81" t="n">
-        <v>0.29434613152082</v>
+        <v>25.44</v>
       </c>
       <c r="J81" t="n">
-        <v>0.5427754982489222</v>
+        <v>126.11</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3467435983652374</v>
+        <v>9967.52</v>
       </c>
     </row>
     <row r="82">
@@ -3961,16 +3961,16 @@
         <v>28</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2343048762104838</v>
+        <v>92</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2701389089362877</v>
+        <v>24.53</v>
       </c>
       <c r="J82" t="n">
-        <v>0.7414010170214062</v>
+        <v>157.29</v>
       </c>
       <c r="K82" t="n">
-        <v>0.3856497407116223</v>
+        <v>10504.11</v>
       </c>
     </row>
     <row r="83">
@@ -4004,16 +4004,16 @@
         <v>20</v>
       </c>
       <c r="H83" t="n">
-        <v>0.5531119176601835</v>
+        <v>140</v>
       </c>
       <c r="I83" t="n">
-        <v>0.5892646597244096</v>
+        <v>36.65</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4461252455029764</v>
+        <v>113.55</v>
       </c>
       <c r="K83" t="n">
-        <v>0.6695612044521826</v>
+        <v>14850.01</v>
       </c>
     </row>
     <row r="84">
@@ -4047,16 +4047,16 @@
         <v>22</v>
       </c>
       <c r="H84" t="n">
-        <v>0.6239406435323539</v>
+        <v>152</v>
       </c>
       <c r="I84" t="n">
-        <v>0.6788258137172413</v>
+        <v>40.72</v>
       </c>
       <c r="J84" t="n">
-        <v>0.6455641220960409</v>
+        <v>140.89</v>
       </c>
       <c r="K84" t="n">
-        <v>0.7526865517024366</v>
+        <v>16535.37</v>
       </c>
     </row>
     <row r="85">
@@ -4090,16 +4090,16 @@
         <v>22</v>
       </c>
       <c r="H85" t="n">
-        <v>0.6295275462633472</v>
+        <v>153</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2722505596796498</v>
+        <v>24.61</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01987941032220951</v>
+        <v>42.72</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01504828004737075</v>
+        <v>3462.56</v>
       </c>
     </row>
     <row r="86">
@@ -4133,16 +4133,16 @@
         <v>20</v>
       </c>
       <c r="H86" t="n">
-        <v>0.5531119176601835</v>
+        <v>140</v>
       </c>
       <c r="I86" t="n">
-        <v>0.6177539951730571</v>
+        <v>37.88</v>
       </c>
       <c r="J86" t="n">
-        <v>0.7434829443523467</v>
+        <v>157.69</v>
       </c>
       <c r="K86" t="n">
-        <v>0.7491110497349348</v>
+        <v>16454.96</v>
       </c>
     </row>
     <row r="87">
@@ -4176,16 +4176,16 @@
         <v>20</v>
       </c>
       <c r="H87" t="n">
-        <v>0.6459796712732155</v>
+        <v>156</v>
       </c>
       <c r="I87" t="n">
-        <v>0.6650313402470307</v>
+        <v>40.05</v>
       </c>
       <c r="J87" t="n">
-        <v>0.4592380539656556</v>
+        <v>115.21</v>
       </c>
       <c r="K87" t="n">
-        <v>0.6869138482742718</v>
+        <v>15174.66</v>
       </c>
     </row>
     <row r="88">
@@ -4219,16 +4219,16 @@
         <v>22</v>
       </c>
       <c r="H88" t="n">
-        <v>0.4429117593156675</v>
+        <v>123</v>
       </c>
       <c r="I88" t="n">
-        <v>0.4798232858460351</v>
+        <v>32.29</v>
       </c>
       <c r="J88" t="n">
-        <v>0.7195775335426748</v>
+        <v>153.23</v>
       </c>
       <c r="K88" t="n">
-        <v>0.5782232564298323</v>
+        <v>13300.14</v>
       </c>
     </row>
     <row r="89">
@@ -4262,16 +4262,16 @@
         <v>28</v>
       </c>
       <c r="H89" t="n">
-        <v>0.860861892013692</v>
+        <v>210</v>
       </c>
       <c r="I89" t="n">
-        <v>0.8726194996190197</v>
+        <v>53.79</v>
       </c>
       <c r="J89" t="n">
-        <v>0.7153522254872133</v>
+        <v>152.47</v>
       </c>
       <c r="K89" t="n">
-        <v>0.9136103638482036</v>
+        <v>21872.68</v>
       </c>
     </row>
     <row r="90">
@@ -4305,16 +4305,16 @@
         <v>42</v>
       </c>
       <c r="H90" t="n">
-        <v>0.9728993048947541</v>
+        <v>288</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9859421430537065</v>
+        <v>79.20999999999999</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2593666465066887</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>0.9644484383839973</v>
+        <v>25862.07</v>
       </c>
     </row>
     <row r="91">
@@ -4348,16 +4348,16 @@
         <v>20</v>
       </c>
       <c r="H91" t="n">
-        <v>0.9824645292650481</v>
+        <v>307</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9786037677384412</v>
+        <v>74.7</v>
       </c>
       <c r="J91" t="n">
-        <v>0.4685880502791495</v>
+        <v>116.4</v>
       </c>
       <c r="K91" t="n">
-        <v>0.9829504849264872</v>
+        <v>28961</v>
       </c>
     </row>
     <row r="92">
@@ -4391,16 +4391,16 @@
         <v>20</v>
       </c>
       <c r="H92" t="n">
-        <v>0.9843930948471409</v>
+        <v>312</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9042994525861712</v>
+        <v>57.41</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04859761263914687</v>
+        <v>53.59</v>
       </c>
       <c r="K92" t="n">
-        <v>0.7768182730287321</v>
+        <v>17102.59</v>
       </c>
     </row>
     <row r="93">
@@ -4434,16 +4434,16 @@
         <v>22</v>
       </c>
       <c r="H93" t="n">
-        <v>0.9789059893221552</v>
+        <v>299</v>
       </c>
       <c r="I93" t="n">
-        <v>0.8582717526288202</v>
+        <v>52.4</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02446835730549808</v>
+        <v>44.95</v>
       </c>
       <c r="K93" t="n">
-        <v>0.4820903003945358</v>
+        <v>11856.75</v>
       </c>
     </row>
     <row r="94">
@@ -4477,16 +4477,16 @@
         <v>22</v>
       </c>
       <c r="H94" t="n">
-        <v>0.9668377400849536</v>
+        <v>279</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9864500763932476</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="J94" t="n">
-        <v>0.8127410613415977</v>
+        <v>172.65</v>
       </c>
       <c r="K94" t="n">
-        <v>0.9931164053233307</v>
+        <v>32613.87</v>
       </c>
     </row>
     <row r="95">
@@ -4520,16 +4520,16 @@
         <v>20</v>
       </c>
       <c r="H95" t="n">
-        <v>0.9637597807313051</v>
+        <v>275</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9510624363258408</v>
+        <v>65.435</v>
       </c>
       <c r="J95" t="n">
-        <v>0.6354050546435843</v>
+        <v>139.33</v>
       </c>
       <c r="K95" t="n">
-        <v>0.9600982271817181</v>
+        <v>25360.785</v>
       </c>
     </row>
     <row r="96">
@@ -4563,16 +4563,16 @@
         <v>22</v>
       </c>
       <c r="H96" t="n">
-        <v>0.9486342423468858</v>
+        <v>259</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9744044272572883</v>
+        <v>72.73999999999999</v>
       </c>
       <c r="J96" t="n">
-        <v>0.816468758513313</v>
+        <v>173.57</v>
       </c>
       <c r="K96" t="n">
-        <v>0.9857522210368275</v>
+        <v>29697.27</v>
       </c>
     </row>
     <row r="97">
@@ -4606,16 +4606,16 @@
         <v>20</v>
       </c>
       <c r="H97" t="n">
-        <v>0.2092203946698998</v>
+        <v>88</v>
       </c>
       <c r="I97" t="n">
-        <v>0.2804648300571523</v>
+        <v>24.92</v>
       </c>
       <c r="J97" t="n">
-        <v>0.9523811009407586</v>
+        <v>229.11</v>
       </c>
       <c r="K97" t="n">
-        <v>0.4308626168853437</v>
+        <v>11131.48</v>
       </c>
     </row>
     <row r="98">
@@ -4649,16 +4649,16 @@
         <v>19</v>
       </c>
       <c r="H98" t="n">
-        <v>0.2123083429409551</v>
+        <v>88.5</v>
       </c>
       <c r="I98" t="n">
-        <v>0.2705345787119728</v>
+        <v>24.545</v>
       </c>
       <c r="J98" t="n">
-        <v>0.8250083490340383</v>
+        <v>175.735</v>
       </c>
       <c r="K98" t="n">
-        <v>0.412514428900891</v>
+        <v>10875.925</v>
       </c>
     </row>
     <row r="99">
@@ -4692,16 +4692,16 @@
         <v>18</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1620039119511134</v>
+        <v>80</v>
       </c>
       <c r="I99" t="n">
-        <v>0.2422654076072555</v>
+        <v>23.46</v>
       </c>
       <c r="J99" t="n">
-        <v>0.9536589098058661</v>
+        <v>230.14</v>
       </c>
       <c r="K99" t="n">
-        <v>0.4108918479982727</v>
+        <v>10853.4</v>
       </c>
     </row>
     <row r="100">
@@ -4735,16 +4735,16 @@
         <v>42</v>
       </c>
       <c r="H100" t="n">
-        <v>0.395420330519393</v>
+        <v>116</v>
       </c>
       <c r="I100" t="n">
-        <v>0.5735032579019553</v>
+        <v>35.99</v>
       </c>
       <c r="J100" t="n">
-        <v>0.7332715369929587</v>
+        <v>155.75</v>
       </c>
       <c r="K100" t="n">
-        <v>0.6326544687048024</v>
+        <v>14195.33</v>
       </c>
     </row>
     <row r="101">
@@ -4778,16 +4778,16 @@
         <v>18</v>
       </c>
       <c r="H101" t="n">
-        <v>0.30676546248949</v>
+        <v>103</v>
       </c>
       <c r="I101" t="n">
-        <v>0.4934632763484661</v>
+        <v>32.81</v>
       </c>
       <c r="J101" t="n">
-        <v>0.9480694153903123</v>
+        <v>225.81</v>
       </c>
       <c r="K101" t="n">
-        <v>0.7085517662259662</v>
+        <v>15597.4</v>
       </c>
     </row>
     <row r="102">
@@ -4821,16 +4821,16 @@
         <v>18</v>
       </c>
       <c r="H102" t="n">
-        <v>0.2667227333685669</v>
+        <v>97</v>
       </c>
       <c r="I102" t="n">
-        <v>0.3931284171498628</v>
+        <v>29.07</v>
       </c>
       <c r="J102" t="n">
-        <v>0.8305664126232984</v>
+        <v>177.19</v>
       </c>
       <c r="K102" t="n">
-        <v>0.5790005391826878</v>
+        <v>13312.44</v>
       </c>
     </row>
     <row r="103">
@@ -4864,16 +4864,16 @@
         <v>19</v>
       </c>
       <c r="H103" t="n">
-        <v>0.3203040610794277</v>
+        <v>105</v>
       </c>
       <c r="I103" t="n">
-        <v>0.4527186386484033</v>
+        <v>31.27</v>
       </c>
       <c r="J103" t="n">
-        <v>0.8738994366897147</v>
+        <v>190.115</v>
       </c>
       <c r="K103" t="n">
-        <v>0.6326401865058601</v>
+        <v>14195.085</v>
       </c>
     </row>
     <row r="104">
@@ -4907,16 +4907,16 @@
         <v>20</v>
       </c>
       <c r="H104" t="n">
-        <v>0.8513116273588954</v>
+        <v>206.5</v>
       </c>
       <c r="I104" t="n">
-        <v>0.8753070058557832</v>
+        <v>54.065</v>
       </c>
       <c r="J104" t="n">
-        <v>0.5211461234691902</v>
+        <v>123.22</v>
       </c>
       <c r="K104" t="n">
-        <v>0.8648352301013512</v>
+        <v>19710.89</v>
       </c>
     </row>
     <row r="105">
@@ -4950,16 +4950,16 @@
         <v>20</v>
       </c>
       <c r="H105" t="n">
-        <v>0.8919226558183116</v>
+        <v>223</v>
       </c>
       <c r="I105" t="n">
-        <v>0.913939135281343</v>
+        <v>58.72</v>
       </c>
       <c r="J105" t="n">
-        <v>0.537576332031099</v>
+        <v>125.41</v>
       </c>
       <c r="K105" t="n">
-        <v>0.9060579745277421</v>
+        <v>21477.3</v>
       </c>
     </row>
     <row r="106">
@@ -4993,16 +4993,16 @@
         <v>42</v>
       </c>
       <c r="H106" t="n">
-        <v>0.8660837549533456</v>
+        <v>212</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9011735317820629</v>
+        <v>57.01</v>
       </c>
       <c r="J106" t="n">
-        <v>0.4834177387533533</v>
+        <v>118.3</v>
       </c>
       <c r="K106" t="n">
-        <v>0.8660682786528988</v>
+        <v>19756.5</v>
       </c>
     </row>
     <row r="107">
@@ -5036,16 +5036,16 @@
         <v>20</v>
       </c>
       <c r="H107" t="n">
-        <v>0.812661504061576</v>
+        <v>194</v>
       </c>
       <c r="I107" t="n">
-        <v>0.867403020432936</v>
+        <v>53.27</v>
       </c>
       <c r="J107" t="n">
-        <v>0.7418183789882962</v>
+        <v>157.37</v>
       </c>
       <c r="K107" t="n">
-        <v>0.8761596503600986</v>
+        <v>20143.85</v>
       </c>
     </row>
     <row r="108">
@@ -5079,16 +5079,16 @@
         <v>15</v>
       </c>
       <c r="H108" t="n">
-        <v>0.7301314282590937</v>
+        <v>173</v>
       </c>
       <c r="I108" t="n">
-        <v>0.7312765465661872</v>
+        <v>43.465</v>
       </c>
       <c r="J108" t="n">
-        <v>0.4462836745522663</v>
+        <v>113.57</v>
       </c>
       <c r="K108" t="n">
-        <v>0.7435558267884401</v>
+        <v>16331.72</v>
       </c>
     </row>
     <row r="109">
@@ -5122,16 +5122,16 @@
         <v>20</v>
       </c>
       <c r="H109" t="n">
-        <v>0.8290021842457582</v>
+        <v>199</v>
       </c>
       <c r="I109" t="n">
-        <v>0.8377016796985395</v>
+        <v>50.6</v>
       </c>
       <c r="J109" t="n">
-        <v>0.4601829104789851</v>
+        <v>115.33</v>
       </c>
       <c r="K109" t="n">
-        <v>0.8210642574885785</v>
+        <v>18281.51</v>
       </c>
     </row>
     <row r="110">
@@ -5165,16 +5165,16 @@
         <v>20</v>
       </c>
       <c r="H110" t="n">
-        <v>0.8092470990399105</v>
+        <v>193</v>
       </c>
       <c r="I110" t="n">
-        <v>0.84632381200093</v>
+        <v>51.33</v>
       </c>
       <c r="J110" t="n">
-        <v>0.6384187629195763</v>
+        <v>139.79</v>
       </c>
       <c r="K110" t="n">
-        <v>0.8568629888720216</v>
+        <v>19424.22</v>
       </c>
     </row>
     <row r="111">
@@ -5208,16 +5208,16 @@
         <v>20</v>
       </c>
       <c r="H111" t="n">
-        <v>0.7914237577949458</v>
+        <v>188</v>
       </c>
       <c r="I111" t="n">
-        <v>0.8108020319318363</v>
+        <v>48.51</v>
       </c>
       <c r="J111" t="n">
-        <v>0.4334197914472485</v>
+        <v>111.95</v>
       </c>
       <c r="K111" t="n">
-        <v>0.7993672624461496</v>
+        <v>17677.48</v>
       </c>
     </row>
     <row r="112">
@@ -5251,16 +5251,16 @@
         <v>10</v>
       </c>
       <c r="H112" t="n">
-        <v>0.5774669366218765</v>
+        <v>144</v>
       </c>
       <c r="I112" t="n">
-        <v>0.3570372182165527</v>
+        <v>27.75</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03849815916502242</v>
+        <v>50.41</v>
       </c>
       <c r="K112" t="n">
-        <v>0.3069598596255237</v>
+        <v>9416.059999999999</v>
       </c>
     </row>
     <row r="113">
@@ -5294,16 +5294,16 @@
         <v>20</v>
       </c>
       <c r="H113" t="n">
-        <v>0.5774669366218765</v>
+        <v>144</v>
       </c>
       <c r="I113" t="n">
-        <v>0.3414683009486501</v>
+        <v>27.18</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04510186486371387</v>
+        <v>52.54</v>
       </c>
       <c r="K113" t="n">
-        <v>0.2026132614270186</v>
+        <v>7902.08</v>
       </c>
     </row>
     <row r="114">
@@ -5337,16 +5337,16 @@
         <v>20</v>
       </c>
       <c r="H114" t="n">
-        <v>0.6825226813171654</v>
+        <v>163</v>
       </c>
       <c r="I114" t="n">
-        <v>0.4233411900440236</v>
+        <v>30.18</v>
       </c>
       <c r="J114" t="n">
-        <v>0.06090153363930721</v>
+        <v>56.96</v>
       </c>
       <c r="K114" t="n">
-        <v>0.2165314133171568</v>
+        <v>8113.97</v>
       </c>
     </row>
     <row r="115">
@@ -5380,16 +5380,16 @@
         <v>20</v>
       </c>
       <c r="H115" t="n">
-        <v>0.760225098760943</v>
+        <v>180</v>
       </c>
       <c r="I115" t="n">
-        <v>0.5139199204741391</v>
+        <v>33.6</v>
       </c>
       <c r="J115" t="n">
-        <v>0.01332897756972486</v>
+        <v>38.83</v>
       </c>
       <c r="K115" t="n">
-        <v>0.1887792037580329</v>
+        <v>7686.75</v>
       </c>
     </row>
     <row r="116">
@@ -5423,16 +5423,16 @@
         <v>20</v>
       </c>
       <c r="H116" t="n">
-        <v>0.7210455453432487</v>
+        <v>171</v>
       </c>
       <c r="I116" t="n">
-        <v>0.4427879066476167</v>
+        <v>30.9</v>
       </c>
       <c r="J116" t="n">
-        <v>0.004998937427029091</v>
+        <v>31.06</v>
       </c>
       <c r="K116" t="n">
-        <v>0.1451028606568145</v>
+        <v>6965.42</v>
       </c>
     </row>
     <row r="117">
@@ -5466,16 +5466,16 @@
         <v>24</v>
       </c>
       <c r="H117" t="n">
-        <v>0.5406769841351631</v>
+        <v>138</v>
       </c>
       <c r="I117" t="n">
-        <v>0.3088768262092917</v>
+        <v>25.98</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02998212014056272</v>
+        <v>47.29</v>
       </c>
       <c r="K117" t="n">
-        <v>0.214207496356994</v>
+        <v>8078.89</v>
       </c>
     </row>
     <row r="118">
@@ -5509,16 +5509,16 @@
         <v>20</v>
       </c>
       <c r="H118" t="n">
-        <v>0.7762438491852865</v>
+        <v>184</v>
       </c>
       <c r="I118" t="n">
-        <v>0.5642850604314001</v>
+        <v>35.61</v>
       </c>
       <c r="J118" t="n">
-        <v>0.006904395614250698</v>
+        <v>33.38</v>
       </c>
       <c r="K118" t="n">
-        <v>0.3313971573900788</v>
+        <v>9755.459999999999</v>
       </c>
     </row>
     <row r="119">
@@ -5552,16 +5552,16 @@
         <v>20</v>
       </c>
       <c r="H119" t="n">
-        <v>0.3749124032838325</v>
+        <v>113</v>
       </c>
       <c r="I119" t="n">
-        <v>0.2368855217023704</v>
+        <v>23.25</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1273025665891888</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="K119" t="n">
-        <v>0.1902881361729682</v>
+        <v>7710.49</v>
       </c>
     </row>
     <row r="120">
@@ -5595,16 +5595,16 @@
         <v>20</v>
       </c>
       <c r="H120" t="n">
-        <v>0.395420330519393</v>
+        <v>116</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1767397942766299</v>
+        <v>20.79</v>
       </c>
       <c r="J120" t="n">
-        <v>0.0002748004522366975</v>
+        <v>16.97</v>
       </c>
       <c r="K120" t="n">
-        <v>0.03053147928471371</v>
+        <v>4227.16</v>
       </c>
     </row>
     <row r="121">
@@ -5638,16 +5638,16 @@
         <v>20</v>
       </c>
       <c r="H121" t="n">
-        <v>0.5834434307148024</v>
+        <v>145</v>
       </c>
       <c r="I121" t="n">
-        <v>0.3800111562670028</v>
+        <v>28.59</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1194303958213231</v>
+        <v>69.22</v>
       </c>
       <c r="K121" t="n">
-        <v>0.2631771974761645</v>
+        <v>8797.98</v>
       </c>
     </row>
     <row r="122">
@@ -5681,16 +5681,16 @@
         <v>20</v>
       </c>
       <c r="H122" t="n">
-        <v>0.6350633002488586</v>
+        <v>154</v>
       </c>
       <c r="I122" t="n">
-        <v>0.6356377868514023</v>
+        <v>38.68</v>
       </c>
       <c r="J122" t="n">
-        <v>0.5620677895802721</v>
+        <v>128.74</v>
       </c>
       <c r="K122" t="n">
-        <v>0.5965951944474788</v>
+        <v>13594.32</v>
       </c>
     </row>
     <row r="123">
@@ -5724,16 +5724,16 @@
         <v>20</v>
       </c>
       <c r="H123" t="n">
-        <v>0.6010913282859285</v>
+        <v>148</v>
       </c>
       <c r="I123" t="n">
-        <v>0.6033089989081284</v>
+        <v>37.25</v>
       </c>
       <c r="J123" t="n">
-        <v>0.3755203838496908</v>
+        <v>104.72</v>
       </c>
       <c r="K123" t="n">
-        <v>0.5339903386224162</v>
+        <v>12618.77</v>
       </c>
     </row>
     <row r="124">
@@ -5767,16 +5767,16 @@
         <v>20</v>
       </c>
       <c r="H124" t="n">
-        <v>0.4894095502742351</v>
+        <v>130</v>
       </c>
       <c r="I124" t="n">
-        <v>0.4535217295357284</v>
+        <v>31.3</v>
       </c>
       <c r="J124" t="n">
-        <v>0.413384713820132</v>
+        <v>109.44</v>
       </c>
       <c r="K124" t="n">
-        <v>0.4012143020664378</v>
+        <v>10719.26</v>
       </c>
     </row>
     <row r="125">
@@ -5810,16 +5810,16 @@
         <v>18</v>
       </c>
       <c r="H125" t="n">
-        <v>0.395420330519393</v>
+        <v>116</v>
       </c>
       <c r="I125" t="n">
-        <v>0.336287725863862</v>
+        <v>26.99</v>
       </c>
       <c r="J125" t="n">
-        <v>0.2603557702609727</v>
+        <v>90.12</v>
       </c>
       <c r="K125" t="n">
-        <v>0.2534642175208792</v>
+        <v>8658.24</v>
       </c>
     </row>
     <row r="126">
@@ -5853,16 +5853,16 @@
         <v>20</v>
       </c>
       <c r="H126" t="n">
-        <v>0.5280805413722846</v>
+        <v>136</v>
       </c>
       <c r="I126" t="n">
-        <v>0.4537893535666793</v>
+        <v>31.31</v>
       </c>
       <c r="J126" t="n">
-        <v>0.4066584629248685</v>
+        <v>108.6</v>
       </c>
       <c r="K126" t="n">
-        <v>0.4174262799339175</v>
+        <v>10944.18</v>
       </c>
     </row>
     <row r="127">
@@ -5896,16 +5896,16 @@
         <v>20</v>
       </c>
       <c r="H127" t="n">
-        <v>0.2536317463491668</v>
+        <v>95</v>
       </c>
       <c r="I127" t="n">
-        <v>0.2159623243975181</v>
+        <v>22.42</v>
       </c>
       <c r="J127" t="n">
-        <v>0.3975983562057233</v>
+        <v>107.47</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1701341545751142</v>
+        <v>7387.58</v>
       </c>
     </row>
     <row r="128">
@@ -5939,16 +5939,16 @@
         <v>42</v>
       </c>
       <c r="H128" t="n">
-        <v>0.8711389181297327</v>
+        <v>214</v>
       </c>
       <c r="I128" t="n">
-        <v>0.8838124311280845</v>
+        <v>54.97</v>
       </c>
       <c r="J128" t="n">
-        <v>0.4330218203950318</v>
+        <v>111.9</v>
       </c>
       <c r="K128" t="n">
-        <v>0.8259996897477839</v>
+        <v>18427.14</v>
       </c>
     </row>
     <row r="129">
@@ -5982,16 +5982,16 @@
         <v>20</v>
       </c>
       <c r="H129" t="n">
-        <v>0.5774669366218765</v>
+        <v>144</v>
       </c>
       <c r="I129" t="n">
-        <v>0.5655038307636771</v>
+        <v>35.66</v>
       </c>
       <c r="J129" t="n">
-        <v>0.3591480846583553</v>
+        <v>102.68</v>
       </c>
       <c r="K129" t="n">
-        <v>0.5424208888636977</v>
+        <v>12746.04</v>
       </c>
     </row>
     <row r="130">
@@ -6025,16 +6025,16 @@
         <v>20</v>
       </c>
       <c r="H130" t="n">
-        <v>0.4496282860097407</v>
+        <v>124</v>
       </c>
       <c r="I130" t="n">
-        <v>0.3912167477895897</v>
+        <v>29</v>
       </c>
       <c r="J130" t="n">
-        <v>0.4144248802010634</v>
+        <v>109.57</v>
       </c>
       <c r="K130" t="n">
-        <v>0.3395848369619466</v>
+        <v>9868.67</v>
       </c>
     </row>
     <row r="131">
@@ -6068,16 +6068,16 @@
         <v>18</v>
       </c>
       <c r="H131" t="n">
-        <v>0.1349392606953534</v>
+        <v>75</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1621347873075861</v>
+        <v>20.15</v>
       </c>
       <c r="J131" t="n">
-        <v>0.5712408352216958</v>
+        <v>130.01</v>
       </c>
       <c r="K131" t="n">
-        <v>0.2650540398956335</v>
+        <v>8824.85</v>
       </c>
     </row>
     <row r="132">
@@ -6111,16 +6111,16 @@
         <v>18</v>
       </c>
       <c r="H132" t="n">
-        <v>0.6774629093752815</v>
+        <v>162</v>
       </c>
       <c r="I132" t="n">
-        <v>0.7010190146006174</v>
+        <v>41.84</v>
       </c>
       <c r="J132" t="n">
-        <v>0.470076680401521</v>
+        <v>116.59</v>
       </c>
       <c r="K132" t="n">
-        <v>0.7631928283087507</v>
+        <v>16776.86</v>
       </c>
     </row>
     <row r="133">
@@ -6154,16 +6154,16 @@
         <v>18</v>
       </c>
       <c r="H133" t="n">
-        <v>0.2092203946698998</v>
+        <v>88</v>
       </c>
       <c r="I133" t="n">
-        <v>0.2315389150727937</v>
+        <v>23.04</v>
       </c>
       <c r="J133" t="n">
-        <v>0.5590132715127677</v>
+        <v>128.32</v>
       </c>
       <c r="K133" t="n">
-        <v>0.3609839318837227</v>
+        <v>10163.93</v>
       </c>
     </row>
     <row r="134">
@@ -6197,16 +6197,16 @@
         <v>24</v>
       </c>
       <c r="H134" t="n">
-        <v>0.4462726822107868</v>
+        <v>123.5</v>
       </c>
       <c r="I134" t="n">
-        <v>0.5201936382240741</v>
+        <v>33.845</v>
       </c>
       <c r="J134" t="n">
-        <v>0.7510039105682222</v>
+        <v>159.155</v>
       </c>
       <c r="K134" t="n">
-        <v>0.6528828745341151</v>
+        <v>14548.575</v>
       </c>
     </row>
     <row r="135">
@@ -6240,16 +6240,16 @@
         <v>20</v>
       </c>
       <c r="H135" t="n">
-        <v>0.5714447303231237</v>
+        <v>143</v>
       </c>
       <c r="I135" t="n">
-        <v>0.7219364852925605</v>
+        <v>42.95</v>
       </c>
       <c r="J135" t="n">
-        <v>0.9221126608119349</v>
+        <v>209.98</v>
       </c>
       <c r="K135" t="n">
-        <v>0.8499700451785672</v>
+        <v>19187.01</v>
       </c>
     </row>
     <row r="136">
@@ -6283,16 +6283,16 @@
         <v>20</v>
       </c>
       <c r="H136" t="n">
-        <v>0.5089016103819823</v>
+        <v>133</v>
       </c>
       <c r="I136" t="n">
-        <v>0.5972570005899163</v>
+        <v>36.99</v>
       </c>
       <c r="J136" t="n">
-        <v>0.7287608593335205</v>
+        <v>154.91</v>
       </c>
       <c r="K136" t="n">
-        <v>0.7006303791380319</v>
+        <v>15440.16</v>
       </c>
     </row>
     <row r="137">
@@ -6326,16 +6326,16 @@
         <v>20</v>
       </c>
       <c r="H137" t="n">
-        <v>0.1676590089594782</v>
+        <v>81</v>
       </c>
       <c r="I137" t="n">
-        <v>0.2046241857421963</v>
+        <v>21.96</v>
       </c>
       <c r="J137" t="n">
-        <v>0.6629185951161464</v>
+        <v>143.62</v>
       </c>
       <c r="K137" t="n">
-        <v>0.299801502251109</v>
+        <v>9316.049999999999</v>
       </c>
     </row>
     <row r="138">
@@ -6369,16 +6369,16 @@
         <v>20</v>
       </c>
       <c r="H138" t="n">
-        <v>0.1910093108100815</v>
+        <v>85</v>
       </c>
       <c r="I138" t="n">
-        <v>0.2807306096358885</v>
+        <v>24.93</v>
       </c>
       <c r="J138" t="n">
-        <v>0.8946163462033314</v>
+        <v>197.67</v>
       </c>
       <c r="K138" t="n">
-        <v>0.4147573754280672</v>
+        <v>10907.08</v>
       </c>
     </row>
     <row r="139">
@@ -6412,16 +6412,16 @@
         <v>18</v>
       </c>
       <c r="H139" t="n">
-        <v>0.7762438491852865</v>
+        <v>184</v>
       </c>
       <c r="I139" t="n">
-        <v>0.8911702287093755</v>
+        <v>55.8</v>
       </c>
       <c r="J139" t="n">
-        <v>0.8866858770511544</v>
+        <v>194.64</v>
       </c>
       <c r="K139" t="n">
-        <v>0.9534944760435043</v>
+        <v>24688.61</v>
       </c>
     </row>
     <row r="140">
@@ -6455,16 +6455,16 @@
         <v>24</v>
       </c>
       <c r="H140" t="n">
-        <v>0.6350633002488586</v>
+        <v>154</v>
       </c>
       <c r="I140" t="n">
-        <v>0.7058239255305161</v>
+        <v>42.09</v>
       </c>
       <c r="J140" t="n">
-        <v>0.6939754885470972</v>
+        <v>148.74</v>
       </c>
       <c r="K140" t="n">
-        <v>0.7872891611392356</v>
+        <v>17363.57</v>
       </c>
     </row>
     <row r="141">
@@ -6498,16 +6498,16 @@
         <v>20</v>
       </c>
       <c r="H141" t="n">
-        <v>0.9377890255101126</v>
+        <v>250</v>
       </c>
       <c r="I141" t="n">
-        <v>0.8634776222362484</v>
+        <v>52.89</v>
       </c>
       <c r="J141" t="n">
-        <v>0.2824208808180914</v>
+        <v>92.98999999999999</v>
       </c>
       <c r="K141" t="n">
-        <v>0.7918597665827161</v>
+        <v>17480.66</v>
       </c>
     </row>
     <row r="142">
@@ -6541,16 +6541,16 @@
         <v>20</v>
       </c>
       <c r="H142" t="n">
-        <v>0.6619608801809399</v>
+        <v>159</v>
       </c>
       <c r="I142" t="n">
-        <v>0.76979027113669</v>
+        <v>45.74</v>
       </c>
       <c r="J142" t="n">
-        <v>0.721288325980505</v>
+        <v>153.54</v>
       </c>
       <c r="K142" t="n">
-        <v>0.7820294661268272</v>
+        <v>17231.25</v>
       </c>
     </row>
     <row r="143">
@@ -6584,16 +6584,16 @@
         <v>40</v>
       </c>
       <c r="H143" t="n">
-        <v>0.9390886033813015</v>
+        <v>251</v>
       </c>
       <c r="I143" t="n">
-        <v>0.9757653100722108</v>
+        <v>73.34</v>
       </c>
       <c r="J143" t="n">
-        <v>0.7106872875865046</v>
+        <v>151.64</v>
       </c>
       <c r="K143" t="n">
-        <v>0.9595469420471392</v>
+        <v>25300.9</v>
       </c>
     </row>
     <row r="144">
@@ -6627,16 +6627,16 @@
         <v>20</v>
       </c>
       <c r="H144" t="n">
-        <v>0.8499036037096996</v>
+        <v>206</v>
       </c>
       <c r="I144" t="n">
-        <v>0.9086783796473623</v>
+        <v>57.99</v>
       </c>
       <c r="J144" t="n">
-        <v>0.7859073306716815</v>
+        <v>166.42</v>
       </c>
       <c r="K144" t="n">
-        <v>0.9433015649265175</v>
+        <v>23805.73</v>
       </c>
     </row>
     <row r="145">
@@ -6670,16 +6670,16 @@
         <v>20</v>
       </c>
       <c r="H145" t="n">
-        <v>0.5089016103819823</v>
+        <v>133</v>
       </c>
       <c r="I145" t="n">
-        <v>0.6023813289353483</v>
+        <v>37.21</v>
       </c>
       <c r="J145" t="n">
-        <v>0.8289388221912798</v>
+        <v>176.76</v>
       </c>
       <c r="K145" t="n">
-        <v>0.7196876272283802</v>
+        <v>15823.69</v>
       </c>
     </row>
     <row r="146">
@@ -6713,16 +6713,16 @@
         <v>21</v>
       </c>
       <c r="H146" t="n">
-        <v>0.8109604820094807</v>
+        <v>193.5</v>
       </c>
       <c r="I146" t="n">
-        <v>0.8850827082607328</v>
+        <v>55.11</v>
       </c>
       <c r="J146" t="n">
-        <v>0.7022673727708828</v>
+        <v>150.165</v>
       </c>
       <c r="K146" t="n">
-        <v>0.9117429384817752</v>
+        <v>21772.16</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_TT_MERGED.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,17 +476,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>RMS</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
         </is>
       </c>
     </row>
@@ -524,13 +539,22 @@
         <v>62.66666666666666</v>
       </c>
       <c r="I2" t="n">
-        <v>15.27333333333333</v>
+        <v>62.71</v>
       </c>
       <c r="J2" t="n">
+        <v>57.57</v>
+      </c>
+      <c r="K2" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="L2" t="n">
         <v>167.1766666666666</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>6039.349999999999</v>
+      </c>
+      <c r="N2" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="3">
@@ -567,13 +591,22 @@
         <v>38</v>
       </c>
       <c r="I3" t="n">
-        <v>8.609999999999999</v>
+        <v>38.23</v>
       </c>
       <c r="J3" t="n">
+        <v>31.86</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13</v>
+      </c>
+      <c r="L3" t="n">
         <v>87.13</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>3744.3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-2.17</v>
       </c>
     </row>
     <row r="4">
@@ -610,13 +643,22 @@
         <v>77</v>
       </c>
       <c r="I4" t="n">
-        <v>21.31</v>
+        <v>77.8</v>
       </c>
       <c r="J4" t="n">
+        <v>68.06999999999999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32.06</v>
+      </c>
+      <c r="L4" t="n">
         <v>180.23</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>8599.23</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-9.16</v>
       </c>
     </row>
     <row r="5">
@@ -653,13 +695,22 @@
         <v>72</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="J5" t="n">
+        <v>67.41</v>
+      </c>
+      <c r="K5" t="n">
+        <v>31.59</v>
+      </c>
+      <c r="L5" t="n">
         <v>211.58</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>8914.52</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-12.09</v>
       </c>
     </row>
     <row r="6">
@@ -696,13 +747,22 @@
         <v>64</v>
       </c>
       <c r="I6" t="n">
-        <v>16.95</v>
+        <v>64.72</v>
       </c>
       <c r="J6" t="n">
+        <v>53.65</v>
+      </c>
+      <c r="K6" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="L6" t="n">
         <v>162.86</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>6755.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="7">
@@ -739,13 +799,22 @@
         <v>74</v>
       </c>
       <c r="I7" t="n">
-        <v>20.25</v>
+        <v>74.78</v>
       </c>
       <c r="J7" t="n">
+        <v>72.77</v>
+      </c>
+      <c r="K7" t="n">
+        <v>30.44</v>
+      </c>
+      <c r="L7" t="n">
         <v>190.65</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>8334.049999999999</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10.9</v>
       </c>
     </row>
     <row r="8">
@@ -782,13 +851,22 @@
         <v>70.5</v>
       </c>
       <c r="I8" t="n">
-        <v>19.165</v>
+        <v>70.59</v>
       </c>
       <c r="J8" t="n">
+        <v>62.70999999999999</v>
+      </c>
+      <c r="K8" t="n">
+        <v>29.035</v>
+      </c>
+      <c r="L8" t="n">
         <v>175.22</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>7643.32</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.89</v>
       </c>
     </row>
     <row r="9">
@@ -825,13 +903,22 @@
         <v>138</v>
       </c>
       <c r="I9" t="n">
-        <v>36.18</v>
+        <v>138.5</v>
       </c>
       <c r="J9" t="n">
+        <v>132.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>55.92</v>
+      </c>
+      <c r="L9" t="n">
         <v>148.53</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>13209.68</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="10">
@@ -868,13 +955,22 @@
         <v>124.5</v>
       </c>
       <c r="I10" t="n">
-        <v>33</v>
+        <v>124.42</v>
       </c>
       <c r="J10" t="n">
+        <v>108.325</v>
+      </c>
+      <c r="K10" t="n">
+        <v>50.975</v>
+      </c>
+      <c r="L10" t="n">
         <v>120.545</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>11961.16</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11.26</v>
       </c>
     </row>
     <row r="11">
@@ -911,13 +1007,22 @@
         <v>170</v>
       </c>
       <c r="I11" t="n">
-        <v>40.82</v>
+        <v>169.69</v>
       </c>
       <c r="J11" t="n">
+        <v>150.24</v>
+      </c>
+      <c r="K11" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="L11" t="n">
         <v>96.90000000000001</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>13351.68</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12.95</v>
       </c>
     </row>
     <row r="12">
@@ -954,13 +1059,22 @@
         <v>139</v>
       </c>
       <c r="I12" t="n">
-        <v>36.47</v>
+        <v>139.17</v>
       </c>
       <c r="J12" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>56.36</v>
+      </c>
+      <c r="L12" t="n">
         <v>124.24</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>13350.31</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="13">
@@ -997,13 +1111,22 @@
         <v>266</v>
       </c>
       <c r="I13" t="n">
-        <v>74.81999999999999</v>
+        <v>208.26</v>
       </c>
       <c r="J13" t="n">
+        <v>211.61</v>
+      </c>
+      <c r="K13" t="n">
+        <v>115.19</v>
+      </c>
+      <c r="L13" t="n">
         <v>135.09</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>25421.91</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9.24</v>
       </c>
     </row>
     <row r="14">
@@ -1040,13 +1163,22 @@
         <v>166</v>
       </c>
       <c r="I14" t="n">
-        <v>43.65</v>
+        <v>166.67</v>
       </c>
       <c r="J14" t="n">
+        <v>136.15</v>
+      </c>
+      <c r="K14" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="L14" t="n">
         <v>124.63</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>16802.99</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9.73</v>
       </c>
     </row>
     <row r="15">
@@ -1083,13 +1215,22 @@
         <v>144</v>
       </c>
       <c r="I15" t="n">
-        <v>37.005</v>
+        <v>144.205</v>
       </c>
       <c r="J15" t="n">
+        <v>134.31</v>
+      </c>
+      <c r="K15" t="n">
+        <v>57.31</v>
+      </c>
+      <c r="L15" t="n">
         <v>115.625</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>13693.54</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1267,22 @@
         <v>180</v>
       </c>
       <c r="I16" t="n">
-        <v>43.42</v>
+        <v>180.08</v>
       </c>
       <c r="J16" t="n">
+        <v>170.69</v>
+      </c>
+      <c r="K16" t="n">
+        <v>66.48</v>
+      </c>
+      <c r="L16" t="n">
         <v>134.82</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>16123.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13.32</v>
       </c>
     </row>
     <row r="17">
@@ -1169,13 +1319,22 @@
         <v>140</v>
       </c>
       <c r="I17" t="n">
-        <v>35.19</v>
+        <v>140.52</v>
       </c>
       <c r="J17" t="n">
+        <v>137.17</v>
+      </c>
+      <c r="K17" t="n">
+        <v>54.68</v>
+      </c>
+      <c r="L17" t="n">
         <v>95.64</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>13642.14</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-1.18</v>
       </c>
     </row>
     <row r="18">
@@ -1212,13 +1371,22 @@
         <v>91</v>
       </c>
       <c r="I18" t="n">
-        <v>21.77</v>
+        <v>91.22</v>
       </c>
       <c r="J18" t="n">
+        <v>74.78999999999999</v>
+      </c>
+      <c r="K18" t="n">
+        <v>33.36</v>
+      </c>
+      <c r="L18" t="n">
         <v>127.32</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>8082.37</v>
+      </c>
+      <c r="N18" t="n">
+        <v>31.79</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1423,22 @@
         <v>18</v>
       </c>
       <c r="I19" t="n">
-        <v>5.52</v>
+        <v>14.42</v>
       </c>
       <c r="J19" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="K19" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="L19" t="n">
         <v>211.15</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>2385.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10.3</v>
       </c>
     </row>
     <row r="20">
@@ -1298,13 +1475,22 @@
         <v>112</v>
       </c>
       <c r="I20" t="n">
-        <v>26.8</v>
+        <v>112.68</v>
       </c>
       <c r="J20" t="n">
+        <v>101.61</v>
+      </c>
+      <c r="K20" t="n">
+        <v>41.45</v>
+      </c>
+      <c r="L20" t="n">
         <v>93.56999999999999</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>10284.91</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.63</v>
       </c>
     </row>
     <row r="21">
@@ -1341,13 +1527,22 @@
         <v>103</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38</v>
+        <v>103.63</v>
       </c>
       <c r="J21" t="n">
+        <v>88.53</v>
+      </c>
+      <c r="K21" t="n">
+        <v>40.22</v>
+      </c>
+      <c r="L21" t="n">
         <v>126.35</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>10006.42</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.59</v>
       </c>
     </row>
     <row r="22">
@@ -1384,13 +1579,22 @@
         <v>143</v>
       </c>
       <c r="I22" t="n">
-        <v>36.75</v>
+        <v>139.84</v>
       </c>
       <c r="J22" t="n">
+        <v>142.86</v>
+      </c>
+      <c r="K22" t="n">
+        <v>56.84</v>
+      </c>
+      <c r="L22" t="n">
         <v>96.06</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>10449.78</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11.93</v>
       </c>
     </row>
     <row r="23">
@@ -1427,13 +1631,22 @@
         <v>85</v>
       </c>
       <c r="I23" t="n">
-        <v>22.38</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="J23" t="n">
+        <v>71.08999999999999</v>
+      </c>
+      <c r="K23" t="n">
+        <v>34.17</v>
+      </c>
+      <c r="L23" t="n">
         <v>133.17</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>9227.84</v>
+      </c>
+      <c r="N23" t="n">
+        <v>21.91</v>
       </c>
     </row>
     <row r="24">
@@ -1470,13 +1683,22 @@
         <v>160</v>
       </c>
       <c r="I24" t="n">
-        <v>40.795</v>
+        <v>153.425</v>
       </c>
       <c r="J24" t="n">
+        <v>149.235</v>
+      </c>
+      <c r="K24" t="n">
+        <v>63.265</v>
+      </c>
+      <c r="L24" t="n">
         <v>90.70999999999999</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>13585.61</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7.75</v>
       </c>
     </row>
     <row r="25">
@@ -1513,14 +1735,21 @@
         <v>102</v>
       </c>
       <c r="I25" t="n">
-        <v>27.98</v>
+        <v>102.62</v>
       </c>
       <c r="J25" t="n">
+        <v>90.21000000000001</v>
+      </c>
+      <c r="K25" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="L25" t="n">
         <v>184.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>11440.56</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1556,13 +1785,22 @@
         <v>84</v>
       </c>
       <c r="I26" t="n">
-        <v>24.64</v>
+        <v>84.17999999999999</v>
       </c>
       <c r="J26" t="n">
+        <v>79.14999999999999</v>
+      </c>
+      <c r="K26" t="n">
+        <v>36.99</v>
+      </c>
+      <c r="L26" t="n">
         <v>203.45</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>10095.6</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.72</v>
       </c>
     </row>
     <row r="27">
@@ -1599,13 +1837,22 @@
         <v>59.5</v>
       </c>
       <c r="I27" t="n">
-        <v>14.23</v>
+        <v>59.355</v>
       </c>
       <c r="J27" t="n">
+        <v>53.31999999999999</v>
+      </c>
+      <c r="K27" t="n">
+        <v>21.765</v>
+      </c>
+      <c r="L27" t="n">
         <v>116.425</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>5565.235</v>
+      </c>
+      <c r="N27" t="n">
+        <v>36.17</v>
       </c>
     </row>
     <row r="28">
@@ -1642,13 +1889,22 @@
         <v>94</v>
       </c>
       <c r="I28" t="n">
-        <v>27.61</v>
+        <v>94.56999999999999</v>
       </c>
       <c r="J28" t="n">
+        <v>74.10999999999999</v>
+      </c>
+      <c r="K28" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="L28" t="n">
         <v>161.77</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>11459.74</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="29">
@@ -1685,13 +1941,22 @@
         <v>65</v>
       </c>
       <c r="I29" t="n">
-        <v>15.5</v>
+        <v>65.73</v>
       </c>
       <c r="J29" t="n">
+        <v>58.35</v>
+      </c>
+      <c r="K29" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="L29" t="n">
         <v>122.89</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>5801.06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>14.99</v>
       </c>
     </row>
     <row r="30">
@@ -1728,13 +1993,22 @@
         <v>95</v>
       </c>
       <c r="I30" t="n">
-        <v>23.7</v>
+        <v>94.89999999999999</v>
       </c>
       <c r="J30" t="n">
+        <v>81.14999999999999</v>
+      </c>
+      <c r="K30" t="n">
+        <v>36.03</v>
+      </c>
+      <c r="L30" t="n">
         <v>135.88</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>9176.41</v>
+      </c>
+      <c r="N30" t="n">
+        <v>20.7</v>
       </c>
     </row>
     <row r="31">
@@ -1771,13 +2045,22 @@
         <v>74</v>
       </c>
       <c r="I31" t="n">
-        <v>18.22</v>
+        <v>74.11</v>
       </c>
       <c r="J31" t="n">
+        <v>62.04000000000001</v>
+      </c>
+      <c r="K31" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="L31" t="n">
         <v>139.37</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>7096.2</v>
+      </c>
+      <c r="N31" t="n">
+        <v>14.05</v>
       </c>
     </row>
     <row r="32">
@@ -1814,13 +2097,22 @@
         <v>62</v>
       </c>
       <c r="I32" t="n">
-        <v>15.73</v>
+        <v>62.38</v>
       </c>
       <c r="J32" t="n">
+        <v>52.32</v>
+      </c>
+      <c r="K32" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="L32" t="n">
         <v>142.12</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>6040.1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>17.93</v>
       </c>
     </row>
     <row r="33">
@@ -1857,13 +2149,22 @@
         <v>67</v>
       </c>
       <c r="I33" t="n">
-        <v>16.73</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="J33" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="K33" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="L33" t="n">
         <v>114.05</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>5726.84</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="34">
@@ -1900,13 +2201,22 @@
         <v>54</v>
       </c>
       <c r="I34" t="n">
-        <v>13.24</v>
+        <v>54.31999999999999</v>
       </c>
       <c r="J34" t="n">
+        <v>49.63</v>
+      </c>
+      <c r="K34" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="L34" t="n">
         <v>116.29</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>4972</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-15.83</v>
       </c>
     </row>
     <row r="35">
@@ -1943,13 +2253,22 @@
         <v>73</v>
       </c>
       <c r="I35" t="n">
-        <v>20.34</v>
+        <v>73.78</v>
       </c>
       <c r="J35" t="n">
+        <v>69.08999999999999</v>
+      </c>
+      <c r="K35" t="n">
+        <v>31.17</v>
+      </c>
+      <c r="L35" t="n">
         <v>139.34</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>7738.17</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-1.61</v>
       </c>
     </row>
     <row r="36">
@@ -1986,13 +2305,22 @@
         <v>45</v>
       </c>
       <c r="I36" t="n">
-        <v>11.72</v>
+        <v>44.93</v>
       </c>
       <c r="J36" t="n">
+        <v>44.26000000000001</v>
+      </c>
+      <c r="K36" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="L36" t="n">
         <v>145.22</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>4449.28</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.76</v>
       </c>
     </row>
     <row r="37">
@@ -2029,13 +2357,22 @@
         <v>68</v>
       </c>
       <c r="I37" t="n">
-        <v>17.3</v>
+        <v>68.41</v>
       </c>
       <c r="J37" t="n">
+        <v>57.01</v>
+      </c>
+      <c r="K37" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="L37" t="n">
         <v>146</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>6377.62</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6.29</v>
       </c>
     </row>
     <row r="38">
@@ -2072,13 +2409,22 @@
         <v>83</v>
       </c>
       <c r="I38" t="n">
-        <v>19.09</v>
+        <v>83.16</v>
       </c>
       <c r="J38" t="n">
+        <v>68.06999999999999</v>
+      </c>
+      <c r="K38" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="L38" t="n">
         <v>88.15000000000001</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>6467.83</v>
+      </c>
+      <c r="N38" t="n">
+        <v>14.57</v>
       </c>
     </row>
     <row r="39">
@@ -2115,13 +2461,22 @@
         <v>78</v>
       </c>
       <c r="I39" t="n">
-        <v>18.94</v>
+        <v>78.47</v>
       </c>
       <c r="J39" t="n">
+        <v>67.06999999999999</v>
+      </c>
+      <c r="K39" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="L39" t="n">
         <v>146.41</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>7069.06</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="40">
@@ -2158,13 +2513,22 @@
         <v>65</v>
       </c>
       <c r="I40" t="n">
-        <v>17.35</v>
+        <v>65.73</v>
       </c>
       <c r="J40" t="n">
+        <v>56.68000000000001</v>
+      </c>
+      <c r="K40" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="L40" t="n">
         <v>131.72</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>6296.06</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.05</v>
       </c>
     </row>
     <row r="41">
@@ -2201,13 +2565,22 @@
         <v>79</v>
       </c>
       <c r="I41" t="n">
-        <v>19.26</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="J41" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="K41" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="L41" t="n">
         <v>96.76000000000001</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>6628.12</v>
+      </c>
+      <c r="N41" t="n">
+        <v>8.68</v>
       </c>
     </row>
     <row r="42">
@@ -2244,14 +2617,21 @@
         <v>109</v>
       </c>
       <c r="I42" t="n">
-        <v>28.85</v>
+        <v>109.49</v>
       </c>
       <c r="J42" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="K42" t="n">
+        <v>43.465</v>
+      </c>
+      <c r="L42" t="n">
         <v>189.6</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>11780.58</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2287,13 +2667,22 @@
         <v>189</v>
       </c>
       <c r="I43" t="n">
-        <v>61.9</v>
+        <v>189.81</v>
       </c>
       <c r="J43" t="n">
+        <v>188.47</v>
+      </c>
+      <c r="K43" t="n">
+        <v>90.45999999999999</v>
+      </c>
+      <c r="L43" t="n">
         <v>206.84</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>28160.15</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -2330,13 +2719,22 @@
         <v>187</v>
       </c>
       <c r="I44" t="n">
-        <v>46.79</v>
+        <v>187.47</v>
       </c>
       <c r="J44" t="n">
+        <v>178.41</v>
+      </c>
+      <c r="K44" t="n">
+        <v>71.22</v>
+      </c>
+      <c r="L44" t="n">
         <v>92</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>19613.36</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-3.57</v>
       </c>
     </row>
     <row r="45">
@@ -2373,13 +2771,22 @@
         <v>189</v>
       </c>
       <c r="I45" t="n">
-        <v>57.63500000000001</v>
+        <v>188.97</v>
       </c>
       <c r="J45" t="n">
+        <v>174.89</v>
+      </c>
+      <c r="K45" t="n">
+        <v>85.215</v>
+      </c>
+      <c r="L45" t="n">
         <v>203.725</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>24923.13</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="46">
@@ -2416,13 +2823,22 @@
         <v>137</v>
       </c>
       <c r="I46" t="n">
-        <v>34.9</v>
+        <v>137.16</v>
       </c>
       <c r="J46" t="n">
+        <v>113.69</v>
+      </c>
+      <c r="K46" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="L46" t="n">
         <v>114.63</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>13788.54</v>
+      </c>
+      <c r="N46" t="n">
+        <v>16.59</v>
       </c>
     </row>
     <row r="47">
@@ -2459,13 +2875,22 @@
         <v>88</v>
       </c>
       <c r="I47" t="n">
-        <v>27.13</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="J47" t="n">
+        <v>86.18000000000001</v>
+      </c>
+      <c r="K47" t="n">
+        <v>39.85</v>
+      </c>
+      <c r="L47" t="n">
         <v>195.87</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>12143.53</v>
+      </c>
+      <c r="N47" t="n">
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -2502,13 +2927,22 @@
         <v>44</v>
       </c>
       <c r="I48" t="n">
-        <v>10.19</v>
+        <v>43.6</v>
       </c>
       <c r="J48" t="n">
+        <v>36.22</v>
+      </c>
+      <c r="K48" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="L48" t="n">
         <v>128.84</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>4169.25</v>
+      </c>
+      <c r="N48" t="n">
+        <v>17.73</v>
       </c>
     </row>
     <row r="49">
@@ -2545,14 +2979,21 @@
         <v>135</v>
       </c>
       <c r="I49" t="n">
-        <v>36.71</v>
+        <v>118.38</v>
       </c>
       <c r="J49" t="n">
+        <v>121.4</v>
+      </c>
+      <c r="K49" t="n">
+        <v>56.37</v>
+      </c>
+      <c r="L49" t="n">
         <v>107.65</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>12034.39</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2588,13 +3029,22 @@
         <v>120</v>
       </c>
       <c r="I50" t="n">
-        <v>34.06</v>
+        <v>120.06</v>
       </c>
       <c r="J50" t="n">
+        <v>105.63</v>
+      </c>
+      <c r="K50" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="L50" t="n">
         <v>146.09</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>13653.89</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-9.16</v>
       </c>
     </row>
     <row r="51">
@@ -2631,13 +3081,22 @@
         <v>114</v>
       </c>
       <c r="I51" t="n">
-        <v>29.91</v>
+        <v>114.35</v>
       </c>
       <c r="J51" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K51" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="L51" t="n">
         <v>132.56</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>12118.11</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-12.09</v>
       </c>
     </row>
     <row r="52">
@@ -2674,13 +3133,22 @@
         <v>64</v>
       </c>
       <c r="I52" t="n">
-        <v>17.38</v>
+        <v>64.215</v>
       </c>
       <c r="J52" t="n">
+        <v>54.495</v>
+      </c>
+      <c r="K52" t="n">
+        <v>25.595</v>
+      </c>
+      <c r="L52" t="n">
         <v>161.255</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>7759.055</v>
+      </c>
+      <c r="N52" t="n">
+        <v>10.9</v>
       </c>
     </row>
     <row r="53">
@@ -2717,13 +3185,22 @@
         <v>33</v>
       </c>
       <c r="I53" t="n">
-        <v>10.89</v>
+        <v>33.87</v>
       </c>
       <c r="J53" t="n">
+        <v>32.52999999999999</v>
+      </c>
+      <c r="K53" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="L53" t="n">
         <v>486.57</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>5623.93</v>
+      </c>
+      <c r="N53" t="n">
+        <v>17.44</v>
       </c>
     </row>
     <row r="54">
@@ -2760,13 +3237,22 @@
         <v>78</v>
       </c>
       <c r="I54" t="n">
-        <v>19.705</v>
+        <v>77.8</v>
       </c>
       <c r="J54" t="n">
+        <v>71.935</v>
+      </c>
+      <c r="K54" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="L54" t="n">
         <v>137.945</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>8453.055</v>
+      </c>
+      <c r="N54" t="n">
+        <v>23.05</v>
       </c>
     </row>
     <row r="55">
@@ -2803,13 +3289,22 @@
         <v>89.5</v>
       </c>
       <c r="I55" t="n">
-        <v>23.34</v>
+        <v>89.87</v>
       </c>
       <c r="J55" t="n">
+        <v>78.47</v>
+      </c>
+      <c r="K55" t="n">
+        <v>35.105</v>
+      </c>
+      <c r="L55" t="n">
         <v>132.75</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>9622.700000000001</v>
+      </c>
+      <c r="N55" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="56">
@@ -2846,13 +3341,22 @@
         <v>275</v>
       </c>
       <c r="I56" t="n">
-        <v>62.18</v>
+        <v>275.66</v>
       </c>
       <c r="J56" t="n">
+        <v>222.67</v>
+      </c>
+      <c r="K56" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="L56" t="n">
         <v>83.92</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>19719.56</v>
+      </c>
+      <c r="N56" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="57">
@@ -2889,13 +3393,22 @@
         <v>223</v>
       </c>
       <c r="I57" t="n">
-        <v>53.78</v>
+        <v>223.35</v>
       </c>
       <c r="J57" t="n">
+        <v>181.76</v>
+      </c>
+      <c r="K57" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="L57" t="n">
         <v>80.42</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>16923.88</v>
+      </c>
+      <c r="N57" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="58">
@@ -2932,13 +3445,22 @@
         <v>276.5</v>
       </c>
       <c r="I58" t="n">
-        <v>56.88</v>
+        <v>276.5</v>
       </c>
       <c r="J58" t="n">
+        <v>271.81</v>
+      </c>
+      <c r="K58" t="n">
+        <v>89.075</v>
+      </c>
+      <c r="L58" t="n">
         <v>68.86</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>16403.045</v>
+      </c>
+      <c r="N58" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="59">
@@ -2975,13 +3497,22 @@
         <v>241</v>
       </c>
       <c r="I59" t="n">
-        <v>57.81</v>
+        <v>240.45</v>
       </c>
       <c r="J59" t="n">
+        <v>206.91</v>
+      </c>
+      <c r="K59" t="n">
+        <v>90.45</v>
+      </c>
+      <c r="L59" t="n">
         <v>103.41</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>19400.23</v>
+      </c>
+      <c r="N59" t="n">
+        <v>7.78</v>
       </c>
     </row>
     <row r="60">
@@ -3018,13 +3549,22 @@
         <v>251</v>
       </c>
       <c r="I60" t="n">
-        <v>63.41</v>
+        <v>251.18</v>
       </c>
       <c r="J60" t="n">
+        <v>212.95</v>
+      </c>
+      <c r="K60" t="n">
+        <v>99.36</v>
+      </c>
+      <c r="L60" t="n">
         <v>72.20999999999999</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>16373.61</v>
+      </c>
+      <c r="N60" t="n">
+        <v>11.92</v>
       </c>
     </row>
     <row r="61">
@@ -3061,13 +3601,22 @@
         <v>242.5</v>
       </c>
       <c r="I61" t="n">
-        <v>58.19</v>
+        <v>242.63</v>
       </c>
       <c r="J61" t="n">
+        <v>197.865</v>
+      </c>
+      <c r="K61" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="L61" t="n">
         <v>84.13</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>18616.355</v>
+      </c>
+      <c r="N61" t="n">
+        <v>9.73</v>
       </c>
     </row>
     <row r="62">
@@ -3104,13 +3653,22 @@
         <v>234</v>
       </c>
       <c r="I62" t="n">
-        <v>59.59</v>
+        <v>233.75</v>
       </c>
       <c r="J62" t="n">
+        <v>194.18</v>
+      </c>
+      <c r="K62" t="n">
+        <v>93.31999999999999</v>
+      </c>
+      <c r="L62" t="n">
         <v>96.81</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>20411.98</v>
+      </c>
+      <c r="N62" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="63">
@@ -3147,13 +3705,22 @@
         <v>136</v>
       </c>
       <c r="I63" t="n">
-        <v>29.68</v>
+        <v>136.83</v>
       </c>
       <c r="J63" t="n">
+        <v>129.12</v>
+      </c>
+      <c r="K63" t="n">
+        <v>46.61</v>
+      </c>
+      <c r="L63" t="n">
         <v>83.15000000000001</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>7991.16</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-1.18</v>
       </c>
     </row>
     <row r="64">
@@ -3190,13 +3757,22 @@
         <v>115</v>
       </c>
       <c r="I64" t="n">
-        <v>20.69</v>
+        <v>115.03</v>
       </c>
       <c r="J64" t="n">
+        <v>94.91</v>
+      </c>
+      <c r="K64" t="n">
+        <v>32.47</v>
+      </c>
+      <c r="L64" t="n">
         <v>50.61</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>5071.71</v>
+      </c>
+      <c r="N64" t="n">
+        <v>31.79</v>
       </c>
     </row>
     <row r="65">
@@ -3233,13 +3809,22 @@
         <v>136</v>
       </c>
       <c r="I65" t="n">
-        <v>29.92</v>
+        <v>135.82</v>
       </c>
       <c r="J65" t="n">
+        <v>127.1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>47</v>
+      </c>
+      <c r="L65" t="n">
         <v>67.93000000000001</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>9582.290000000001</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-3.2</v>
       </c>
     </row>
     <row r="66">
@@ -3276,13 +3861,22 @@
         <v>150</v>
       </c>
       <c r="I66" t="n">
-        <v>31.03</v>
+        <v>149.9</v>
       </c>
       <c r="J66" t="n">
+        <v>127.44</v>
+      </c>
+      <c r="K66" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="L66" t="n">
         <v>78.48</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>9582.67</v>
+      </c>
+      <c r="N66" t="n">
+        <v>10.85</v>
       </c>
     </row>
     <row r="67">
@@ -3319,13 +3913,22 @@
         <v>121</v>
       </c>
       <c r="I67" t="n">
-        <v>22.83</v>
+        <v>121.06</v>
       </c>
       <c r="J67" t="n">
+        <v>111</v>
+      </c>
+      <c r="K67" t="n">
+        <v>35.93</v>
+      </c>
+      <c r="L67" t="n">
         <v>51.24</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>6213.36</v>
+      </c>
+      <c r="N67" t="n">
+        <v>13.09</v>
       </c>
     </row>
     <row r="68">
@@ -3362,13 +3965,22 @@
         <v>150</v>
       </c>
       <c r="I68" t="n">
-        <v>28.73</v>
+        <v>150.24</v>
       </c>
       <c r="J68" t="n">
+        <v>127.1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>45.17</v>
+      </c>
+      <c r="L68" t="n">
         <v>63.92</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>8381.879999999999</v>
+      </c>
+      <c r="N68" t="n">
+        <v>8.59</v>
       </c>
     </row>
     <row r="69">
@@ -3405,13 +4017,22 @@
         <v>141</v>
       </c>
       <c r="I69" t="n">
-        <v>28.84</v>
+        <v>141.19</v>
       </c>
       <c r="J69" t="n">
+        <v>135.82</v>
+      </c>
+      <c r="K69" t="n">
+        <v>45.35</v>
+      </c>
+      <c r="L69" t="n">
         <v>54.39</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>8426.459999999999</v>
+      </c>
+      <c r="N69" t="n">
+        <v>12.53</v>
       </c>
     </row>
     <row r="70">
@@ -3448,13 +4069,22 @@
         <v>138.3333333333333</v>
       </c>
       <c r="I70" t="n">
-        <v>26.24333333333333</v>
+        <v>138.8366666666667</v>
       </c>
       <c r="J70" t="n">
+        <v>129.4466666666667</v>
+      </c>
+      <c r="K70" t="n">
+        <v>41.25666666666667</v>
+      </c>
+      <c r="L70" t="n">
         <v>58.41333333333333</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>6902.243333333333</v>
+      </c>
+      <c r="N70" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="71">
@@ -3491,13 +4121,22 @@
         <v>157</v>
       </c>
       <c r="I71" t="n">
-        <v>47.67</v>
+        <v>157.45</v>
       </c>
       <c r="J71" t="n">
+        <v>128.11</v>
+      </c>
+      <c r="K71" t="n">
+        <v>72.19499999999999</v>
+      </c>
+      <c r="L71" t="n">
         <v>160.84</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>19651.475</v>
+      </c>
+      <c r="N71" t="n">
+        <v>5.65</v>
       </c>
     </row>
     <row r="72">
@@ -3534,13 +4173,22 @@
         <v>146</v>
       </c>
       <c r="I72" t="n">
-        <v>39.64</v>
+        <v>146.55</v>
       </c>
       <c r="J72" t="n">
+        <v>114.02</v>
+      </c>
+      <c r="K72" t="n">
+        <v>60.73</v>
+      </c>
+      <c r="L72" t="n">
         <v>105.68</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>15117.76</v>
+      </c>
+      <c r="N72" t="n">
+        <v>10.11</v>
       </c>
     </row>
     <row r="73">
@@ -3577,13 +4225,22 @@
         <v>156</v>
       </c>
       <c r="I73" t="n">
-        <v>43.29</v>
+        <v>156.28</v>
       </c>
       <c r="J73" t="n">
+        <v>153.93</v>
+      </c>
+      <c r="K73" t="n">
+        <v>65.66</v>
+      </c>
+      <c r="L73" t="n">
         <v>131.49</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>17509.99</v>
+      </c>
+      <c r="N73" t="n">
+        <v>14.99</v>
       </c>
     </row>
     <row r="74">
@@ -3620,13 +4277,22 @@
         <v>96</v>
       </c>
       <c r="I74" t="n">
-        <v>21.69</v>
+        <v>96.92</v>
       </c>
       <c r="J74" t="n">
+        <v>84.51000000000001</v>
+      </c>
+      <c r="K74" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="L74" t="n">
         <v>98.56999999999999</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>8301.34</v>
+      </c>
+      <c r="N74" t="n">
+        <v>15.32</v>
       </c>
     </row>
     <row r="75">
@@ -3663,13 +4329,22 @@
         <v>174</v>
       </c>
       <c r="I75" t="n">
-        <v>45.12</v>
+        <v>174.38</v>
       </c>
       <c r="J75" t="n">
+        <v>155.94</v>
+      </c>
+      <c r="K75" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="L75" t="n">
         <v>127.92</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>17405.68</v>
+      </c>
+      <c r="N75" t="n">
+        <v>14.05</v>
       </c>
     </row>
     <row r="76">
@@ -3706,13 +4381,22 @@
         <v>153</v>
       </c>
       <c r="I76" t="n">
-        <v>39.84</v>
+        <v>153.93</v>
       </c>
       <c r="J76" t="n">
+        <v>140.85</v>
+      </c>
+      <c r="K76" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="L76" t="n">
         <v>117.26</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>15011.63</v>
+      </c>
+      <c r="N76" t="n">
+        <v>15.16</v>
       </c>
     </row>
     <row r="77">
@@ -3749,13 +4433,22 @@
         <v>113</v>
       </c>
       <c r="I77" t="n">
-        <v>31.33</v>
+        <v>112.68</v>
       </c>
       <c r="J77" t="n">
+        <v>105.31</v>
+      </c>
+      <c r="K77" t="n">
+        <v>46.59</v>
+      </c>
+      <c r="L77" t="n">
         <v>137.57</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>13202.85</v>
+      </c>
+      <c r="N77" t="n">
+        <v>11.44</v>
       </c>
     </row>
     <row r="78">
@@ -3792,13 +4485,22 @@
         <v>152</v>
       </c>
       <c r="I78" t="n">
-        <v>39</v>
+        <v>152.59</v>
       </c>
       <c r="J78" t="n">
+        <v>151.25</v>
+      </c>
+      <c r="K78" t="n">
+        <v>59.46</v>
+      </c>
+      <c r="L78" t="n">
         <v>125.84</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>14830.6</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.01</v>
       </c>
     </row>
     <row r="79">
@@ -3835,13 +4537,22 @@
         <v>153</v>
       </c>
       <c r="I79" t="n">
-        <v>43.13</v>
+        <v>153.59</v>
       </c>
       <c r="J79" t="n">
+        <v>131.13</v>
+      </c>
+      <c r="K79" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="L79" t="n">
         <v>123.98</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>16849.11</v>
+      </c>
+      <c r="N79" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="80">
@@ -3878,14 +4589,21 @@
         <v>144</v>
       </c>
       <c r="I80" t="n">
-        <v>39.66</v>
+        <v>144.2</v>
       </c>
       <c r="J80" t="n">
+        <v>142.86</v>
+      </c>
+      <c r="K80" t="n">
+        <v>59.11</v>
+      </c>
+      <c r="L80" t="n">
         <v>148.92</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>17044.38</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3921,13 +4639,22 @@
         <v>103.5</v>
       </c>
       <c r="I81" t="n">
-        <v>25.44</v>
+        <v>102.95</v>
       </c>
       <c r="J81" t="n">
+        <v>94.405</v>
+      </c>
+      <c r="K81" t="n">
+        <v>38.665</v>
+      </c>
+      <c r="L81" t="n">
         <v>126.11</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>9967.52</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="82">
@@ -3964,13 +4691,22 @@
         <v>92</v>
       </c>
       <c r="I82" t="n">
-        <v>24.53</v>
+        <v>91.55</v>
       </c>
       <c r="J82" t="n">
+        <v>83.84</v>
+      </c>
+      <c r="K82" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="L82" t="n">
         <v>157.29</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>10504.11</v>
+      </c>
+      <c r="N82" t="n">
+        <v>29.27</v>
       </c>
     </row>
     <row r="83">
@@ -4007,13 +4743,22 @@
         <v>140</v>
       </c>
       <c r="I83" t="n">
-        <v>36.65</v>
+        <v>140.18</v>
       </c>
       <c r="J83" t="n">
+        <v>134.48</v>
+      </c>
+      <c r="K83" t="n">
+        <v>55.74</v>
+      </c>
+      <c r="L83" t="n">
         <v>113.55</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>14850.01</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-1.61</v>
       </c>
     </row>
     <row r="84">
@@ -4050,13 +4795,22 @@
         <v>152</v>
       </c>
       <c r="I84" t="n">
-        <v>40.72</v>
+        <v>152.92</v>
       </c>
       <c r="J84" t="n">
+        <v>134.14</v>
+      </c>
+      <c r="K84" t="n">
+        <v>61.26</v>
+      </c>
+      <c r="L84" t="n">
         <v>140.89</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>16535.37</v>
+      </c>
+      <c r="N84" t="n">
+        <v>6.76</v>
       </c>
     </row>
     <row r="85">
@@ -4093,13 +4847,22 @@
         <v>153</v>
       </c>
       <c r="I85" t="n">
-        <v>24.61</v>
+        <v>153.59</v>
       </c>
       <c r="J85" t="n">
+        <v>135.49</v>
+      </c>
+      <c r="K85" t="n">
+        <v>38.55</v>
+      </c>
+      <c r="L85" t="n">
         <v>42.72</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>3462.56</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.05</v>
       </c>
     </row>
     <row r="86">
@@ -4136,13 +4899,22 @@
         <v>140</v>
       </c>
       <c r="I86" t="n">
-        <v>37.88</v>
+        <v>140.18</v>
       </c>
       <c r="J86" t="n">
+        <v>134.15</v>
+      </c>
+      <c r="K86" t="n">
+        <v>56.34</v>
+      </c>
+      <c r="L86" t="n">
         <v>157.69</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>16454.96</v>
+      </c>
+      <c r="N86" t="n">
+        <v>13.77</v>
       </c>
     </row>
     <row r="87">
@@ -4179,13 +4951,22 @@
         <v>156</v>
       </c>
       <c r="I87" t="n">
-        <v>40.05</v>
+        <v>156.27</v>
       </c>
       <c r="J87" t="n">
+        <v>143.53</v>
+      </c>
+      <c r="K87" t="n">
+        <v>61.66</v>
+      </c>
+      <c r="L87" t="n">
         <v>115.21</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>15174.66</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="88">
@@ -4222,13 +5003,22 @@
         <v>123</v>
       </c>
       <c r="I88" t="n">
-        <v>32.29</v>
+        <v>123.41</v>
       </c>
       <c r="J88" t="n">
+        <v>107.99</v>
+      </c>
+      <c r="K88" t="n">
+        <v>47.98</v>
+      </c>
+      <c r="L88" t="n">
         <v>153.23</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>13300.14</v>
+      </c>
+      <c r="N88" t="n">
+        <v>8.68</v>
       </c>
     </row>
     <row r="89">
@@ -4265,13 +5055,22 @@
         <v>210</v>
       </c>
       <c r="I89" t="n">
-        <v>53.79</v>
+        <v>208.25</v>
       </c>
       <c r="J89" t="n">
+        <v>170.69</v>
+      </c>
+      <c r="K89" t="n">
+        <v>80.37</v>
+      </c>
+      <c r="L89" t="n">
         <v>152.47</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>21872.68</v>
+      </c>
+      <c r="N89" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="90">
@@ -4308,13 +5107,22 @@
         <v>288</v>
       </c>
       <c r="I90" t="n">
-        <v>79.20999999999999</v>
+        <v>274.66</v>
       </c>
       <c r="J90" t="n">
+        <v>281.03</v>
+      </c>
+      <c r="K90" t="n">
+        <v>120.91</v>
+      </c>
+      <c r="L90" t="n">
         <v>89.98999999999999</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>25862.07</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-3.57</v>
       </c>
     </row>
     <row r="91">
@@ -4351,13 +5159,22 @@
         <v>307</v>
       </c>
       <c r="I91" t="n">
-        <v>74.7</v>
+        <v>306.85</v>
       </c>
       <c r="J91" t="n">
+        <v>277.68</v>
+      </c>
+      <c r="K91" t="n">
+        <v>113.08</v>
+      </c>
+      <c r="L91" t="n">
         <v>116.4</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>28961</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3.66</v>
       </c>
     </row>
     <row r="92">
@@ -4394,13 +5211,22 @@
         <v>312</v>
       </c>
       <c r="I92" t="n">
-        <v>57.41</v>
+        <v>312.89</v>
       </c>
       <c r="J92" t="n">
+        <v>312.89</v>
+      </c>
+      <c r="K92" t="n">
+        <v>88.61</v>
+      </c>
+      <c r="L92" t="n">
         <v>53.59</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>17102.59</v>
+      </c>
+      <c r="N92" t="n">
+        <v>12.31</v>
       </c>
     </row>
     <row r="93">
@@ -4437,13 +5263,22 @@
         <v>299</v>
       </c>
       <c r="I93" t="n">
-        <v>52.4</v>
+        <v>298.8</v>
       </c>
       <c r="J93" t="n">
+        <v>282.37</v>
+      </c>
+      <c r="K93" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="L93" t="n">
         <v>44.95</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>11856.75</v>
+      </c>
+      <c r="N93" t="n">
+        <v>11.84</v>
       </c>
     </row>
     <row r="94">
@@ -4480,13 +5315,22 @@
         <v>279</v>
       </c>
       <c r="I94" t="n">
-        <v>79.59999999999999</v>
+        <v>279.35</v>
       </c>
       <c r="J94" t="n">
+        <v>237.43</v>
+      </c>
+      <c r="K94" t="n">
+        <v>119.14</v>
+      </c>
+      <c r="L94" t="n">
         <v>172.65</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>32613.87</v>
+      </c>
+      <c r="N94" t="n">
+        <v>16.59</v>
       </c>
     </row>
     <row r="95">
@@ -4523,13 +5367,22 @@
         <v>275</v>
       </c>
       <c r="I95" t="n">
-        <v>65.435</v>
+        <v>275.33</v>
       </c>
       <c r="J95" t="n">
+        <v>248.34</v>
+      </c>
+      <c r="K95" t="n">
+        <v>98.52500000000001</v>
+      </c>
+      <c r="L95" t="n">
         <v>139.33</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>25360.785</v>
+      </c>
+      <c r="N95" t="n">
+        <v>17.73</v>
       </c>
     </row>
     <row r="96">
@@ -4566,13 +5419,22 @@
         <v>259</v>
       </c>
       <c r="I96" t="n">
-        <v>72.73999999999999</v>
+        <v>258.89</v>
       </c>
       <c r="J96" t="n">
+        <v>228.38</v>
+      </c>
+      <c r="K96" t="n">
+        <v>108.86</v>
+      </c>
+      <c r="L96" t="n">
         <v>173.57</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>29697.27</v>
+      </c>
+      <c r="N96" t="n">
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4609,14 +5471,21 @@
         <v>88</v>
       </c>
       <c r="I97" t="n">
-        <v>24.92</v>
+        <v>88.53</v>
       </c>
       <c r="J97" t="n">
+        <v>85.51000000000001</v>
+      </c>
+      <c r="K97" t="n">
+        <v>35.89</v>
+      </c>
+      <c r="L97" t="n">
         <v>229.11</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>11131.48</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4652,13 +5521,22 @@
         <v>88.5</v>
       </c>
       <c r="I98" t="n">
-        <v>24.545</v>
+        <v>89.03999999999999</v>
       </c>
       <c r="J98" t="n">
+        <v>85.015</v>
+      </c>
+      <c r="K98" t="n">
+        <v>35.72499999999999</v>
+      </c>
+      <c r="L98" t="n">
         <v>175.735</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>10875.925</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-1.08</v>
       </c>
     </row>
     <row r="99">
@@ -4695,13 +5573,22 @@
         <v>80</v>
       </c>
       <c r="I99" t="n">
-        <v>23.46</v>
+        <v>80.81999999999999</v>
       </c>
       <c r="J99" t="n">
+        <v>74.44999999999999</v>
+      </c>
+      <c r="K99" t="n">
+        <v>33.83</v>
+      </c>
+      <c r="L99" t="n">
         <v>230.14</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>10853.4</v>
+      </c>
+      <c r="N99" t="n">
+        <v>21.58</v>
       </c>
     </row>
     <row r="100">
@@ -4738,13 +5625,22 @@
         <v>116</v>
       </c>
       <c r="I100" t="n">
-        <v>35.99</v>
+        <v>113.35</v>
       </c>
       <c r="J100" t="n">
+        <v>94.23999999999999</v>
+      </c>
+      <c r="K100" t="n">
+        <v>52.69</v>
+      </c>
+      <c r="L100" t="n">
         <v>155.75</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>14195.33</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-9.16</v>
       </c>
     </row>
     <row r="101">
@@ -4781,13 +5677,22 @@
         <v>103</v>
       </c>
       <c r="I101" t="n">
-        <v>32.81</v>
+        <v>103.29</v>
       </c>
       <c r="J101" t="n">
+        <v>102.95</v>
+      </c>
+      <c r="K101" t="n">
+        <v>46.99</v>
+      </c>
+      <c r="L101" t="n">
         <v>225.81</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>15597.4</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-10.16</v>
       </c>
     </row>
     <row r="102">
@@ -4824,13 +5729,22 @@
         <v>97</v>
       </c>
       <c r="I102" t="n">
-        <v>29.07</v>
+        <v>97.92</v>
       </c>
       <c r="J102" t="n">
+        <v>82.16</v>
+      </c>
+      <c r="K102" t="n">
+        <v>42.33</v>
+      </c>
+      <c r="L102" t="n">
         <v>177.19</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>13312.44</v>
+      </c>
+      <c r="N102" t="n">
+        <v>5.22</v>
       </c>
     </row>
     <row r="103">
@@ -4867,13 +5781,22 @@
         <v>105</v>
       </c>
       <c r="I103" t="n">
-        <v>31.27</v>
+        <v>105.13</v>
       </c>
       <c r="J103" t="n">
+        <v>95.07499999999999</v>
+      </c>
+      <c r="K103" t="n">
+        <v>45.525</v>
+      </c>
+      <c r="L103" t="n">
         <v>190.115</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>14195.085</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-0.89</v>
       </c>
     </row>
     <row r="104">
@@ -4910,13 +5833,22 @@
         <v>206.5</v>
       </c>
       <c r="I104" t="n">
-        <v>54.065</v>
+        <v>206.915</v>
       </c>
       <c r="J104" t="n">
+        <v>189.985</v>
+      </c>
+      <c r="K104" t="n">
+        <v>83.205</v>
+      </c>
+      <c r="L104" t="n">
         <v>123.22</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>19710.89</v>
+      </c>
+      <c r="N104" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="105">
@@ -4953,13 +5885,22 @@
         <v>223</v>
       </c>
       <c r="I105" t="n">
-        <v>58.72</v>
+        <v>223.68</v>
       </c>
       <c r="J105" t="n">
+        <v>188.14</v>
+      </c>
+      <c r="K105" t="n">
+        <v>90.34999999999999</v>
+      </c>
+      <c r="L105" t="n">
         <v>125.41</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>21477.3</v>
+      </c>
+      <c r="N105" t="n">
+        <v>4.04</v>
       </c>
     </row>
     <row r="106">
@@ -4996,13 +5937,22 @@
         <v>212</v>
       </c>
       <c r="I106" t="n">
-        <v>57.01</v>
+        <v>193.17</v>
       </c>
       <c r="J106" t="n">
+        <v>207.25</v>
+      </c>
+      <c r="K106" t="n">
+        <v>87.11</v>
+      </c>
+      <c r="L106" t="n">
         <v>118.3</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>19756.5</v>
+      </c>
+      <c r="N106" t="n">
+        <v>7.78</v>
       </c>
     </row>
     <row r="107">
@@ -5039,13 +5989,22 @@
         <v>194</v>
       </c>
       <c r="I107" t="n">
-        <v>53.27</v>
+        <v>194.84</v>
       </c>
       <c r="J107" t="n">
+        <v>179.75</v>
+      </c>
+      <c r="K107" t="n">
+        <v>81.68000000000001</v>
+      </c>
+      <c r="L107" t="n">
         <v>157.37</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>20143.85</v>
+      </c>
+      <c r="N107" t="n">
+        <v>13.83</v>
       </c>
     </row>
     <row r="108">
@@ -5082,13 +6041,22 @@
         <v>173</v>
       </c>
       <c r="I108" t="n">
-        <v>43.465</v>
+        <v>173.21</v>
       </c>
       <c r="J108" t="n">
+        <v>153.085</v>
+      </c>
+      <c r="K108" t="n">
+        <v>66.98</v>
+      </c>
+      <c r="L108" t="n">
         <v>113.57</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>16331.72</v>
+      </c>
+      <c r="N108" t="n">
+        <v>16.11</v>
       </c>
     </row>
     <row r="109">
@@ -5125,13 +6093,22 @@
         <v>199</v>
       </c>
       <c r="I109" t="n">
-        <v>50.6</v>
+        <v>199.53</v>
       </c>
       <c r="J109" t="n">
+        <v>184.44</v>
+      </c>
+      <c r="K109" t="n">
+        <v>77.79000000000001</v>
+      </c>
+      <c r="L109" t="n">
         <v>115.33</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>18281.51</v>
+      </c>
+      <c r="N109" t="n">
+        <v>9.24</v>
       </c>
     </row>
     <row r="110">
@@ -5168,13 +6145,22 @@
         <v>193</v>
       </c>
       <c r="I110" t="n">
-        <v>51.33</v>
+        <v>193.16</v>
       </c>
       <c r="J110" t="n">
+        <v>161.31</v>
+      </c>
+      <c r="K110" t="n">
+        <v>78.45999999999999</v>
+      </c>
+      <c r="L110" t="n">
         <v>139.79</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>19424.22</v>
+      </c>
+      <c r="N110" t="n">
+        <v>9.73</v>
       </c>
     </row>
     <row r="111">
@@ -5211,13 +6197,22 @@
         <v>188</v>
       </c>
       <c r="I111" t="n">
-        <v>48.51</v>
+        <v>188.47</v>
       </c>
       <c r="J111" t="n">
+        <v>174.05</v>
+      </c>
+      <c r="K111" t="n">
+        <v>74.48999999999999</v>
+      </c>
+      <c r="L111" t="n">
         <v>111.95</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>17677.48</v>
+      </c>
+      <c r="N111" t="n">
+        <v>9.91</v>
       </c>
     </row>
     <row r="112">
@@ -5254,14 +6249,21 @@
         <v>144</v>
       </c>
       <c r="I112" t="n">
-        <v>27.75</v>
+        <v>144.54</v>
       </c>
       <c r="J112" t="n">
+        <v>135.82</v>
+      </c>
+      <c r="K112" t="n">
+        <v>42.67</v>
+      </c>
+      <c r="L112" t="n">
         <v>50.41</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>9416.059999999999</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5297,13 +6299,22 @@
         <v>144</v>
       </c>
       <c r="I113" t="n">
-        <v>27.18</v>
+        <v>144.2</v>
       </c>
       <c r="J113" t="n">
+        <v>133.14</v>
+      </c>
+      <c r="K113" t="n">
+        <v>42.18</v>
+      </c>
+      <c r="L113" t="n">
         <v>52.54</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>7902.08</v>
+      </c>
+      <c r="N113" t="n">
+        <v>31.79</v>
       </c>
     </row>
     <row r="114">
@@ -5340,13 +6351,22 @@
         <v>163</v>
       </c>
       <c r="I114" t="n">
-        <v>30.18</v>
+        <v>163.32</v>
       </c>
       <c r="J114" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="K114" t="n">
+        <v>47.02</v>
+      </c>
+      <c r="L114" t="n">
         <v>56.96</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>8113.97</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-3.31</v>
       </c>
     </row>
     <row r="115">
@@ -5383,13 +6403,22 @@
         <v>180</v>
       </c>
       <c r="I115" t="n">
-        <v>33.6</v>
+        <v>180.09</v>
       </c>
       <c r="J115" t="n">
+        <v>165.33</v>
+      </c>
+      <c r="K115" t="n">
+        <v>52.54</v>
+      </c>
+      <c r="L115" t="n">
         <v>38.83</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>7686.75</v>
+      </c>
+      <c r="N115" t="n">
+        <v>10.3</v>
       </c>
     </row>
     <row r="116">
@@ -5426,13 +6455,22 @@
         <v>171</v>
       </c>
       <c r="I116" t="n">
-        <v>30.9</v>
+        <v>171.37</v>
       </c>
       <c r="J116" t="n">
+        <v>150.58</v>
+      </c>
+      <c r="K116" t="n">
+        <v>48.31</v>
+      </c>
+      <c r="L116" t="n">
         <v>31.06</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>6965.42</v>
+      </c>
+      <c r="N116" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="117">
@@ -5469,13 +6507,22 @@
         <v>138</v>
       </c>
       <c r="I117" t="n">
-        <v>25.98</v>
+        <v>138.16</v>
       </c>
       <c r="J117" t="n">
+        <v>120.73</v>
+      </c>
+      <c r="K117" t="n">
+        <v>39.82</v>
+      </c>
+      <c r="L117" t="n">
         <v>47.29</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>8078.89</v>
+      </c>
+      <c r="N117" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="118">
@@ -5512,13 +6559,22 @@
         <v>184</v>
       </c>
       <c r="I118" t="n">
-        <v>35.61</v>
+        <v>184.44</v>
       </c>
       <c r="J118" t="n">
+        <v>183.77</v>
+      </c>
+      <c r="K118" t="n">
+        <v>55.18</v>
+      </c>
+      <c r="L118" t="n">
         <v>33.38</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>9755.459999999999</v>
+      </c>
+      <c r="N118" t="n">
+        <v>12.53</v>
       </c>
     </row>
     <row r="119">
@@ -5555,13 +6611,22 @@
         <v>113</v>
       </c>
       <c r="I119" t="n">
-        <v>23.25</v>
+        <v>112.68</v>
       </c>
       <c r="J119" t="n">
+        <v>105.64</v>
+      </c>
+      <c r="K119" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="L119" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>7710.49</v>
+      </c>
+      <c r="N119" t="n">
+        <v>21.91</v>
       </c>
     </row>
     <row r="120">
@@ -5598,13 +6663,22 @@
         <v>116</v>
       </c>
       <c r="I120" t="n">
-        <v>20.79</v>
+        <v>116.36</v>
       </c>
       <c r="J120" t="n">
+        <v>113.01</v>
+      </c>
+      <c r="K120" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="L120" t="n">
         <v>16.97</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>4227.16</v>
+      </c>
+      <c r="N120" t="n">
+        <v>7.75</v>
       </c>
     </row>
     <row r="121">
@@ -5641,13 +6715,22 @@
         <v>145</v>
       </c>
       <c r="I121" t="n">
-        <v>28.59</v>
+        <v>145.54</v>
       </c>
       <c r="J121" t="n">
+        <v>131.12</v>
+      </c>
+      <c r="K121" t="n">
+        <v>44.03</v>
+      </c>
+      <c r="L121" t="n">
         <v>69.22</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>8797.98</v>
+      </c>
+      <c r="N121" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="122">
@@ -5684,13 +6767,22 @@
         <v>154</v>
       </c>
       <c r="I122" t="n">
-        <v>38.68</v>
+        <v>154.26</v>
       </c>
       <c r="J122" t="n">
+        <v>141.52</v>
+      </c>
+      <c r="K122" t="n">
+        <v>59.89</v>
+      </c>
+      <c r="L122" t="n">
         <v>128.74</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>13594.32</v>
+      </c>
+      <c r="N122" t="n">
+        <v>3.72</v>
       </c>
     </row>
     <row r="123">
@@ -5727,13 +6819,22 @@
         <v>148</v>
       </c>
       <c r="I123" t="n">
-        <v>37.25</v>
+        <v>148.23</v>
       </c>
       <c r="J123" t="n">
+        <v>139.18</v>
+      </c>
+      <c r="K123" t="n">
+        <v>57.92</v>
+      </c>
+      <c r="L123" t="n">
         <v>104.72</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>12618.77</v>
+      </c>
+      <c r="N123" t="n">
+        <v>4.58</v>
       </c>
     </row>
     <row r="124">
@@ -5770,13 +6871,22 @@
         <v>130</v>
       </c>
       <c r="I124" t="n">
-        <v>31.3</v>
+        <v>129.945</v>
       </c>
       <c r="J124" t="n">
+        <v>119.39</v>
+      </c>
+      <c r="K124" t="n">
+        <v>48.575</v>
+      </c>
+      <c r="L124" t="n">
         <v>109.44</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>10719.26</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="125">
@@ -5813,13 +6923,22 @@
         <v>116</v>
       </c>
       <c r="I125" t="n">
-        <v>26.99</v>
+        <v>116.03</v>
       </c>
       <c r="J125" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="K125" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="L125" t="n">
         <v>90.12</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
         <v>8658.24</v>
+      </c>
+      <c r="N125" t="n">
+        <v>7.72</v>
       </c>
     </row>
     <row r="126">
@@ -5856,13 +6975,22 @@
         <v>136</v>
       </c>
       <c r="I126" t="n">
-        <v>31.31</v>
+        <v>136.49</v>
       </c>
       <c r="J126" t="n">
+        <v>124.08</v>
+      </c>
+      <c r="K126" t="n">
+        <v>48.49</v>
+      </c>
+      <c r="L126" t="n">
         <v>108.6</v>
       </c>
-      <c r="K126" t="n">
+      <c r="M126" t="n">
         <v>10944.18</v>
+      </c>
+      <c r="N126" t="n">
+        <v>14.99</v>
       </c>
     </row>
     <row r="127">
@@ -5899,13 +7027,22 @@
         <v>95</v>
       </c>
       <c r="I127" t="n">
-        <v>22.42</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="J127" t="n">
+        <v>90.53999999999999</v>
+      </c>
+      <c r="K127" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="L127" t="n">
         <v>107.47</v>
       </c>
-      <c r="K127" t="n">
+      <c r="M127" t="n">
         <v>7387.58</v>
+      </c>
+      <c r="N127" t="n">
+        <v>20.7</v>
       </c>
     </row>
     <row r="128">
@@ -5942,13 +7079,22 @@
         <v>214</v>
       </c>
       <c r="I128" t="n">
-        <v>54.97</v>
+        <v>170.7</v>
       </c>
       <c r="J128" t="n">
+        <v>207.25</v>
+      </c>
+      <c r="K128" t="n">
+        <v>84.64</v>
+      </c>
+      <c r="L128" t="n">
         <v>111.9</v>
       </c>
-      <c r="K128" t="n">
+      <c r="M128" t="n">
         <v>18427.14</v>
+      </c>
+      <c r="N128" t="n">
+        <v>11.44</v>
       </c>
     </row>
     <row r="129">
@@ -5985,13 +7131,22 @@
         <v>144</v>
       </c>
       <c r="I129" t="n">
-        <v>35.66</v>
+        <v>143.86</v>
       </c>
       <c r="J129" t="n">
+        <v>119.72</v>
+      </c>
+      <c r="K129" t="n">
+        <v>55.18</v>
+      </c>
+      <c r="L129" t="n">
         <v>102.68</v>
       </c>
-      <c r="K129" t="n">
+      <c r="M129" t="n">
         <v>12746.04</v>
+      </c>
+      <c r="N129" t="n">
+        <v>6.01</v>
       </c>
     </row>
     <row r="130">
@@ -6028,13 +7183,22 @@
         <v>124</v>
       </c>
       <c r="I130" t="n">
-        <v>29</v>
+        <v>124.08</v>
       </c>
       <c r="J130" t="n">
+        <v>108.32</v>
+      </c>
+      <c r="K130" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="L130" t="n">
         <v>109.57</v>
       </c>
-      <c r="K130" t="n">
+      <c r="M130" t="n">
         <v>9868.67</v>
+      </c>
+      <c r="N130" t="n">
+        <v>12.23</v>
       </c>
     </row>
     <row r="131">
@@ -6071,14 +7235,21 @@
         <v>75</v>
       </c>
       <c r="I131" t="n">
-        <v>20.15</v>
+        <v>75.45999999999999</v>
       </c>
       <c r="J131" t="n">
+        <v>61.36999999999999</v>
+      </c>
+      <c r="K131" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="L131" t="n">
         <v>130.01</v>
       </c>
-      <c r="K131" t="n">
+      <c r="M131" t="n">
         <v>8824.85</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6114,13 +7285,22 @@
         <v>162</v>
       </c>
       <c r="I132" t="n">
-        <v>41.84</v>
+        <v>161.97</v>
       </c>
       <c r="J132" t="n">
+        <v>135.48</v>
+      </c>
+      <c r="K132" t="n">
+        <v>63.22</v>
+      </c>
+      <c r="L132" t="n">
         <v>116.59</v>
       </c>
-      <c r="K132" t="n">
+      <c r="M132" t="n">
         <v>16776.86</v>
+      </c>
+      <c r="N132" t="n">
+        <v>-15.83</v>
       </c>
     </row>
     <row r="133">
@@ -6157,13 +7337,22 @@
         <v>88</v>
       </c>
       <c r="I133" t="n">
-        <v>23.04</v>
+        <v>87.86</v>
       </c>
       <c r="J133" t="n">
+        <v>76.13</v>
+      </c>
+      <c r="K133" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="L133" t="n">
         <v>128.32</v>
       </c>
-      <c r="K133" t="n">
+      <c r="M133" t="n">
         <v>10163.93</v>
+      </c>
+      <c r="N133" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="134">
@@ -6200,13 +7389,22 @@
         <v>123.5</v>
       </c>
       <c r="I134" t="n">
-        <v>33.845</v>
+        <v>123.745</v>
       </c>
       <c r="J134" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="K134" t="n">
+        <v>50.335</v>
+      </c>
+      <c r="L134" t="n">
         <v>159.155</v>
       </c>
-      <c r="K134" t="n">
+      <c r="M134" t="n">
         <v>14548.575</v>
+      </c>
+      <c r="N134" t="n">
+        <v>6.76</v>
       </c>
     </row>
     <row r="135">
@@ -6243,13 +7441,22 @@
         <v>143</v>
       </c>
       <c r="I135" t="n">
-        <v>42.95</v>
+        <v>143.87</v>
       </c>
       <c r="J135" t="n">
+        <v>135.15</v>
+      </c>
+      <c r="K135" t="n">
+        <v>63.49</v>
+      </c>
+      <c r="L135" t="n">
         <v>209.98</v>
       </c>
-      <c r="K135" t="n">
+      <c r="M135" t="n">
         <v>19187.01</v>
+      </c>
+      <c r="N135" t="n">
+        <v>6.29</v>
       </c>
     </row>
     <row r="136">
@@ -6286,13 +7493,22 @@
         <v>133</v>
       </c>
       <c r="I136" t="n">
-        <v>36.99</v>
+        <v>133.47</v>
       </c>
       <c r="J136" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="K136" t="n">
+        <v>55.72</v>
+      </c>
+      <c r="L136" t="n">
         <v>154.91</v>
       </c>
-      <c r="K136" t="n">
+      <c r="M136" t="n">
         <v>15440.16</v>
+      </c>
+      <c r="N136" t="n">
+        <v>8.08</v>
       </c>
     </row>
     <row r="137">
@@ -6329,13 +7545,22 @@
         <v>81</v>
       </c>
       <c r="I137" t="n">
-        <v>21.96</v>
+        <v>81.83</v>
       </c>
       <c r="J137" t="n">
+        <v>75.45999999999999</v>
+      </c>
+      <c r="K137" t="n">
+        <v>32.64</v>
+      </c>
+      <c r="L137" t="n">
         <v>143.62</v>
       </c>
-      <c r="K137" t="n">
+      <c r="M137" t="n">
         <v>9316.049999999999</v>
+      </c>
+      <c r="N137" t="n">
+        <v>13.77</v>
       </c>
     </row>
     <row r="138">
@@ -6372,13 +7597,22 @@
         <v>85</v>
       </c>
       <c r="I138" t="n">
-        <v>24.93</v>
+        <v>85.18000000000001</v>
       </c>
       <c r="J138" t="n">
+        <v>79.14</v>
+      </c>
+      <c r="K138" t="n">
+        <v>37.09</v>
+      </c>
+      <c r="L138" t="n">
         <v>197.67</v>
       </c>
-      <c r="K138" t="n">
+      <c r="M138" t="n">
         <v>10907.08</v>
+      </c>
+      <c r="N138" t="n">
+        <v>14.9</v>
       </c>
     </row>
     <row r="139">
@@ -6415,13 +7649,22 @@
         <v>184</v>
       </c>
       <c r="I139" t="n">
-        <v>55.8</v>
+        <v>184.11</v>
       </c>
       <c r="J139" t="n">
+        <v>155.27</v>
+      </c>
+      <c r="K139" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="L139" t="n">
         <v>194.64</v>
       </c>
-      <c r="K139" t="n">
+      <c r="M139" t="n">
         <v>24688.61</v>
+      </c>
+      <c r="N139" t="n">
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="140">
@@ -6458,13 +7701,22 @@
         <v>154</v>
       </c>
       <c r="I140" t="n">
-        <v>42.09</v>
+        <v>153.93</v>
       </c>
       <c r="J140" t="n">
+        <v>135.15</v>
+      </c>
+      <c r="K140" t="n">
+        <v>63.26</v>
+      </c>
+      <c r="L140" t="n">
         <v>148.74</v>
       </c>
-      <c r="K140" t="n">
+      <c r="M140" t="n">
         <v>17363.57</v>
+      </c>
+      <c r="N140" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="141">
@@ -6501,13 +7753,22 @@
         <v>250</v>
       </c>
       <c r="I141" t="n">
-        <v>52.89</v>
+        <v>250.18</v>
       </c>
       <c r="J141" t="n">
+        <v>234.76</v>
+      </c>
+      <c r="K141" t="n">
+        <v>81.47</v>
+      </c>
+      <c r="L141" t="n">
         <v>92.98999999999999</v>
       </c>
-      <c r="K141" t="n">
+      <c r="M141" t="n">
         <v>17480.66</v>
+      </c>
+      <c r="N141" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="142">
@@ -6544,13 +7805,22 @@
         <v>159</v>
       </c>
       <c r="I142" t="n">
-        <v>45.74</v>
+        <v>159.63</v>
       </c>
       <c r="J142" t="n">
+        <v>133.14</v>
+      </c>
+      <c r="K142" t="n">
+        <v>70.09</v>
+      </c>
+      <c r="L142" t="n">
         <v>153.54</v>
       </c>
-      <c r="K142" t="n">
+      <c r="M142" t="n">
         <v>17231.25</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="143">
@@ -6587,13 +7857,22 @@
         <v>251</v>
       </c>
       <c r="I143" t="n">
-        <v>73.34</v>
+        <v>250.84</v>
       </c>
       <c r="J143" t="n">
+        <v>214.96</v>
+      </c>
+      <c r="K143" t="n">
+        <v>111.18</v>
+      </c>
+      <c r="L143" t="n">
         <v>151.64</v>
       </c>
-      <c r="K143" t="n">
+      <c r="M143" t="n">
         <v>25300.9</v>
+      </c>
+      <c r="N143" t="n">
+        <v>-6.55</v>
       </c>
     </row>
     <row r="144">
@@ -6630,13 +7909,22 @@
         <v>206</v>
       </c>
       <c r="I144" t="n">
-        <v>57.99</v>
+        <v>206.58</v>
       </c>
       <c r="J144" t="n">
+        <v>170.7</v>
+      </c>
+      <c r="K144" t="n">
+        <v>87.48</v>
+      </c>
+      <c r="L144" t="n">
         <v>166.42</v>
       </c>
-      <c r="K144" t="n">
+      <c r="M144" t="n">
         <v>23805.73</v>
+      </c>
+      <c r="N144" t="n">
+        <v>10.32</v>
       </c>
     </row>
     <row r="145">
@@ -6673,13 +7961,22 @@
         <v>133</v>
       </c>
       <c r="I145" t="n">
-        <v>37.21</v>
+        <v>133.14</v>
       </c>
       <c r="J145" t="n">
+        <v>129.11</v>
+      </c>
+      <c r="K145" t="n">
+        <v>55.74</v>
+      </c>
+      <c r="L145" t="n">
         <v>176.76</v>
       </c>
-      <c r="K145" t="n">
+      <c r="M145" t="n">
         <v>15823.69</v>
+      </c>
+      <c r="N145" t="n">
+        <v>16.59</v>
       </c>
     </row>
     <row r="146">
@@ -6716,13 +8013,22 @@
         <v>193.5</v>
       </c>
       <c r="I146" t="n">
-        <v>55.11</v>
+        <v>193.495</v>
       </c>
       <c r="J146" t="n">
+        <v>170.36</v>
+      </c>
+      <c r="K146" t="n">
+        <v>83.505</v>
+      </c>
+      <c r="L146" t="n">
         <v>150.165</v>
       </c>
-      <c r="K146" t="n">
+      <c r="M146" t="n">
         <v>21772.16</v>
+      </c>
+      <c r="N146" t="n">
+        <v>9.119999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_TT_MERGED.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N231"/>
+  <dimension ref="A1:M231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,11 +499,6 @@
           <t>AUC</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -553,7 +548,6 @@
       <c r="M2" t="n">
         <v>6660.57</v>
       </c>
-      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -603,9 +597,6 @@
       <c r="M3" t="n">
         <v>6039.349999999999</v>
       </c>
-      <c r="N3" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -655,9 +646,6 @@
       <c r="M4" t="n">
         <v>4528.96</v>
       </c>
-      <c r="N4" t="n">
-        <v>-8.369999999999999</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -707,9 +695,6 @@
       <c r="M5" t="n">
         <v>3744.3</v>
       </c>
-      <c r="N5" t="n">
-        <v>-2.17</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -759,9 +744,6 @@
       <c r="M6" t="n">
         <v>7196.915</v>
       </c>
-      <c r="N6" t="n">
-        <v>-9.16</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -811,9 +793,6 @@
       <c r="M7" t="n">
         <v>8914.52</v>
       </c>
-      <c r="N7" t="n">
-        <v>-12.09</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -863,9 +842,6 @@
       <c r="M8" t="n">
         <v>6352.67</v>
       </c>
-      <c r="N8" t="n">
-        <v>-10.16</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -915,9 +891,6 @@
       <c r="M9" t="n">
         <v>5742.764999999999</v>
       </c>
-      <c r="N9" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -967,9 +940,6 @@
       <c r="M10" t="n">
         <v>3312.05</v>
       </c>
-      <c r="N10" t="n">
-        <v>19.21</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1019,9 +989,6 @@
       <c r="M11" t="n">
         <v>6095.554999999999</v>
       </c>
-      <c r="N11" t="n">
-        <v>10.9</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1071,9 +1038,6 @@
       <c r="M12" t="n">
         <v>3674.43</v>
       </c>
-      <c r="N12" t="n">
-        <v>17.44</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1123,9 +1087,6 @@
       <c r="M13" t="n">
         <v>6248.64</v>
       </c>
-      <c r="N13" t="n">
-        <v>23.05</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1175,9 +1136,6 @@
       <c r="M14" t="n">
         <v>4597.73</v>
       </c>
-      <c r="N14" t="n">
-        <v>18.8</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1227,9 +1185,6 @@
       <c r="M15" t="n">
         <v>7643.32</v>
       </c>
-      <c r="N15" t="n">
-        <v>-0.89</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1279,7 +1234,6 @@
       <c r="M16" t="n">
         <v>10724.99</v>
       </c>
-      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1329,9 +1283,6 @@
       <c r="M17" t="n">
         <v>11432.15333333333</v>
       </c>
-      <c r="N17" t="n">
-        <v>5.900000000000001</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1381,9 +1332,6 @@
       <c r="M18" t="n">
         <v>11133.77</v>
       </c>
-      <c r="N18" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1433,9 +1381,6 @@
       <c r="M19" t="n">
         <v>12739.76</v>
       </c>
-      <c r="N19" t="n">
-        <v>11.92</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1485,9 +1430,6 @@
       <c r="M20" t="n">
         <v>8210.26</v>
       </c>
-      <c r="N20" t="n">
-        <v>8.65</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1537,9 +1479,6 @@
       <c r="M21" t="n">
         <v>11017.48</v>
       </c>
-      <c r="N21" t="n">
-        <v>13.83</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1589,9 +1528,6 @@
       <c r="M22" t="n">
         <v>11961.16</v>
       </c>
-      <c r="N22" t="n">
-        <v>11.26</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1641,9 +1577,6 @@
       <c r="M23" t="n">
         <v>11293.7</v>
       </c>
-      <c r="N23" t="n">
-        <v>16.11</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1693,9 +1626,6 @@
       <c r="M24" t="n">
         <v>13351.68</v>
       </c>
-      <c r="N24" t="n">
-        <v>12.95</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1745,9 +1675,6 @@
       <c r="M25" t="n">
         <v>12131.555</v>
       </c>
-      <c r="N25" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1797,9 +1724,6 @@
       <c r="M26" t="n">
         <v>25421.91</v>
       </c>
-      <c r="N26" t="n">
-        <v>9.24</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1849,9 +1773,6 @@
       <c r="M27" t="n">
         <v>16802.99</v>
       </c>
-      <c r="N27" t="n">
-        <v>9.73</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1901,9 +1822,6 @@
       <c r="M28" t="n">
         <v>13693.54</v>
       </c>
-      <c r="N28" t="n">
-        <v>13.5</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1953,9 +1871,6 @@
       <c r="M29" t="n">
         <v>16123.5</v>
       </c>
-      <c r="N29" t="n">
-        <v>13.32</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2005,9 +1920,6 @@
       <c r="M30" t="n">
         <v>10668.78</v>
       </c>
-      <c r="N30" t="n">
-        <v>9.91</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2057,7 +1969,6 @@
       <c r="M31" t="n">
         <v>12520.05</v>
       </c>
-      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2107,9 +2018,6 @@
       <c r="M32" t="n">
         <v>13642.14</v>
       </c>
-      <c r="N32" t="n">
-        <v>-1.18</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2159,9 +2067,6 @@
       <c r="M33" t="n">
         <v>8082.37</v>
       </c>
-      <c r="N33" t="n">
-        <v>31.79</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2211,9 +2116,6 @@
       <c r="M34" t="n">
         <v>10882.19</v>
       </c>
-      <c r="N34" t="n">
-        <v>-3.2</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2263,9 +2165,6 @@
       <c r="M35" t="n">
         <v>12314.62</v>
       </c>
-      <c r="N35" t="n">
-        <v>10.85</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2315,9 +2214,6 @@
       <c r="M36" t="n">
         <v>2385.02</v>
       </c>
-      <c r="N36" t="n">
-        <v>10.3</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2367,9 +2263,6 @@
       <c r="M37" t="n">
         <v>12890.79</v>
       </c>
-      <c r="N37" t="n">
-        <v>1.84</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2419,9 +2312,6 @@
       <c r="M38" t="n">
         <v>10284.91</v>
       </c>
-      <c r="N38" t="n">
-        <v>3.63</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2471,9 +2361,6 @@
       <c r="M39" t="n">
         <v>9713.205</v>
       </c>
-      <c r="N39" t="n">
-        <v>8.59</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2523,9 +2410,6 @@
       <c r="M40" t="n">
         <v>9839.709999999999</v>
       </c>
-      <c r="N40" t="n">
-        <v>12.53</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2575,9 +2459,6 @@
       <c r="M41" t="n">
         <v>10449.78</v>
       </c>
-      <c r="N41" t="n">
-        <v>11.93</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2627,9 +2508,6 @@
       <c r="M42" t="n">
         <v>10581.95</v>
       </c>
-      <c r="N42" t="n">
-        <v>21.91</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2679,9 +2557,6 @@
       <c r="M43" t="n">
         <v>13585.61</v>
       </c>
-      <c r="N43" t="n">
-        <v>7.75</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2731,9 +2606,6 @@
       <c r="M44" t="n">
         <v>12580.69</v>
       </c>
-      <c r="N44" t="n">
-        <v>7.16</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2783,7 +2655,6 @@
       <c r="M45" t="n">
         <v>11440.56</v>
       </c>
-      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2833,9 +2704,6 @@
       <c r="M46" t="n">
         <v>9898</v>
       </c>
-      <c r="N46" t="n">
-        <v>3.72</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2885,9 +2753,6 @@
       <c r="M47" t="n">
         <v>5565.235</v>
       </c>
-      <c r="N47" t="n">
-        <v>36.17</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2937,9 +2802,6 @@
       <c r="M48" t="n">
         <v>10174.1</v>
       </c>
-      <c r="N48" t="n">
-        <v>10.11</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2989,9 +2851,6 @@
       <c r="M49" t="n">
         <v>9903.173333333332</v>
       </c>
-      <c r="N49" t="n">
-        <v>1.33</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3041,9 +2900,6 @@
       <c r="M50" t="n">
         <v>6614.205</v>
       </c>
-      <c r="N50" t="n">
-        <v>14.99</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3093,9 +2949,6 @@
       <c r="M51" t="n">
         <v>8438.43</v>
       </c>
-      <c r="N51" t="n">
-        <v>20.7</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3145,9 +2998,6 @@
       <c r="M52" t="n">
         <v>8240.879999999999</v>
       </c>
-      <c r="N52" t="n">
-        <v>15.32</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3197,9 +3047,6 @@
       <c r="M53" t="n">
         <v>7096.2</v>
       </c>
-      <c r="N53" t="n">
-        <v>14.05</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3249,9 +3096,6 @@
       <c r="M54" t="n">
         <v>7829.55</v>
       </c>
-      <c r="N54" t="n">
-        <v>15.16</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3301,9 +3145,6 @@
       <c r="M55" t="n">
         <v>6040.1</v>
       </c>
-      <c r="N55" t="n">
-        <v>17.93</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3353,9 +3194,6 @@
       <c r="M56" t="n">
         <v>11363.89</v>
       </c>
-      <c r="N56" t="n">
-        <v>6.01</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3405,9 +3243,6 @@
       <c r="M57" t="n">
         <v>6380.184999999999</v>
       </c>
-      <c r="N57" t="n">
-        <v>0.4</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3457,9 +3292,6 @@
       <c r="M58" t="n">
         <v>4972</v>
       </c>
-      <c r="N58" t="n">
-        <v>-15.83</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3509,9 +3341,6 @@
       <c r="M59" t="n">
         <v>6503.275</v>
       </c>
-      <c r="N59" t="n">
-        <v>-1.61</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3561,9 +3390,6 @@
       <c r="M60" t="n">
         <v>5518.44</v>
       </c>
-      <c r="N60" t="n">
-        <v>6.760000000000001</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3613,9 +3439,6 @@
       <c r="M61" t="n">
         <v>6377.62</v>
       </c>
-      <c r="N61" t="n">
-        <v>6.29</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3665,9 +3488,6 @@
       <c r="M62" t="n">
         <v>6467.83</v>
       </c>
-      <c r="N62" t="n">
-        <v>14.57</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3717,9 +3537,6 @@
       <c r="M63" t="n">
         <v>5627.03</v>
       </c>
-      <c r="N63" t="n">
-        <v>8.08</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3769,9 +3586,6 @@
       <c r="M64" t="n">
         <v>6358.535</v>
       </c>
-      <c r="N64" t="n">
-        <v>5.7</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3821,9 +3635,6 @@
       <c r="M65" t="n">
         <v>6296.06</v>
       </c>
-      <c r="N65" t="n">
-        <v>6.05</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3873,9 +3684,6 @@
       <c r="M66" t="n">
         <v>5764.06</v>
       </c>
-      <c r="N66" t="n">
-        <v>13.77</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3925,9 +3733,6 @@
       <c r="M67" t="n">
         <v>7644.75</v>
       </c>
-      <c r="N67" t="n">
-        <v>0.31</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3977,9 +3782,6 @@
       <c r="M68" t="n">
         <v>6413.66</v>
       </c>
-      <c r="N68" t="n">
-        <v>8.68</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4029,7 +3831,6 @@
       <c r="M69" t="n">
         <v>11780.58</v>
       </c>
-      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4079,9 +3880,6 @@
       <c r="M70" t="n">
         <v>28160.15</v>
       </c>
-      <c r="N70" t="n">
-        <v>-9.890000000000001</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4131,9 +3929,6 @@
       <c r="M71" t="n">
         <v>21198.78</v>
       </c>
-      <c r="N71" t="n">
-        <v>-3.57</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4183,9 +3978,6 @@
       <c r="M72" t="n">
         <v>23304.64</v>
       </c>
-      <c r="N72" t="n">
-        <v>0.38</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4235,9 +4027,6 @@
       <c r="M73" t="n">
         <v>24923.13</v>
       </c>
-      <c r="N73" t="n">
-        <v>3.66</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4287,9 +4076,6 @@
       <c r="M74" t="n">
         <v>17991.3</v>
       </c>
-      <c r="N74" t="n">
-        <v>-6.55</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4339,9 +4125,6 @@
       <c r="M75" t="n">
         <v>14823.58</v>
       </c>
-      <c r="N75" t="n">
-        <v>16.59</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4391,9 +4174,6 @@
       <c r="M76" t="n">
         <v>15509.77</v>
       </c>
-      <c r="N76" t="n">
-        <v>13.06</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4443,9 +4223,6 @@
       <c r="M77" t="n">
         <v>8039.66</v>
       </c>
-      <c r="N77" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4495,9 +4272,6 @@
       <c r="M78" t="n">
         <v>14573.82</v>
       </c>
-      <c r="N78" t="n">
-        <v>8.630000000000001</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4547,9 +4321,6 @@
       <c r="M79" t="n">
         <v>11689.7</v>
       </c>
-      <c r="N79" t="n">
-        <v>17.73</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4599,9 +4370,6 @@
       <c r="M80" t="n">
         <v>12319.29</v>
       </c>
-      <c r="N80" t="n">
-        <v>9.119999999999999</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4651,7 +4419,6 @@
       <c r="M81" t="n">
         <v>12034.39</v>
       </c>
-      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4701,9 +4468,6 @@
       <c r="M82" t="n">
         <v>9731.51</v>
       </c>
-      <c r="N82" t="n">
-        <v>-1.08</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4753,9 +4517,6 @@
       <c r="M83" t="n">
         <v>11256.61</v>
       </c>
-      <c r="N83" t="n">
-        <v>-8.369999999999999</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4805,9 +4566,6 @@
       <c r="M84" t="n">
         <v>10562.97</v>
       </c>
-      <c r="N84" t="n">
-        <v>-2.17</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4857,9 +4615,6 @@
       <c r="M85" t="n">
         <v>13653.89</v>
       </c>
-      <c r="N85" t="n">
-        <v>-9.16</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4909,9 +4664,6 @@
       <c r="M86" t="n">
         <v>12118.11</v>
       </c>
-      <c r="N86" t="n">
-        <v>-12.09</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4961,9 +4713,6 @@
       <c r="M87" t="n">
         <v>7460.78</v>
       </c>
-      <c r="N87" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5013,9 +4762,6 @@
       <c r="M88" t="n">
         <v>7759.055</v>
       </c>
-      <c r="N88" t="n">
-        <v>10.9</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5065,9 +4811,6 @@
       <c r="M89" t="n">
         <v>5648.75</v>
       </c>
-      <c r="N89" t="n">
-        <v>22.39</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5117,9 +4860,6 @@
       <c r="M90" t="n">
         <v>5623.93</v>
       </c>
-      <c r="N90" t="n">
-        <v>17.44</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5169,9 +4909,6 @@
       <c r="M91" t="n">
         <v>8453.055</v>
       </c>
-      <c r="N91" t="n">
-        <v>23.05</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5221,9 +4958,6 @@
       <c r="M92" t="n">
         <v>9622.700000000001</v>
       </c>
-      <c r="N92" t="n">
-        <v>18.8</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5273,7 +5007,6 @@
       <c r="M93" t="n">
         <v>22403.115</v>
       </c>
-      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5323,9 +5056,6 @@
       <c r="M94" t="n">
         <v>19719.56</v>
       </c>
-      <c r="N94" t="n">
-        <v>5.9</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5375,9 +5105,6 @@
       <c r="M95" t="n">
         <v>12669.44</v>
       </c>
-      <c r="N95" t="n">
-        <v>30.27</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5427,9 +5154,6 @@
       <c r="M96" t="n">
         <v>19687.29</v>
       </c>
-      <c r="N96" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5479,9 +5203,6 @@
       <c r="M97" t="n">
         <v>16403.045</v>
       </c>
-      <c r="N97" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5531,9 +5252,6 @@
       <c r="M98" t="n">
         <v>19400.23</v>
       </c>
-      <c r="N98" t="n">
-        <v>7.78</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5583,9 +5301,6 @@
       <c r="M99" t="n">
         <v>16373.61</v>
       </c>
-      <c r="N99" t="n">
-        <v>11.92</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5635,9 +5350,6 @@
       <c r="M100" t="n">
         <v>17455.685</v>
       </c>
-      <c r="N100" t="n">
-        <v>8.65</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5687,9 +5399,6 @@
       <c r="M101" t="n">
         <v>16967.87</v>
       </c>
-      <c r="N101" t="n">
-        <v>13.83</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5739,9 +5448,6 @@
       <c r="M102" t="n">
         <v>20429.08</v>
       </c>
-      <c r="N102" t="n">
-        <v>11.26</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5791,9 +5497,6 @@
       <c r="M103" t="n">
         <v>18876.83</v>
       </c>
-      <c r="N103" t="n">
-        <v>9.24</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5843,9 +5546,6 @@
       <c r="M104" t="n">
         <v>18616.355</v>
       </c>
-      <c r="N104" t="n">
-        <v>9.73</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5895,9 +5595,6 @@
       <c r="M105" t="n">
         <v>20411.98</v>
       </c>
-      <c r="N105" t="n">
-        <v>13.5</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5947,7 +5644,6 @@
       <c r="M106" t="n">
         <v>9210.25</v>
       </c>
-      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5997,9 +5693,6 @@
       <c r="M107" t="n">
         <v>7991.16</v>
       </c>
-      <c r="N107" t="n">
-        <v>-1.18</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6049,9 +5742,6 @@
       <c r="M108" t="n">
         <v>5071.71</v>
       </c>
-      <c r="N108" t="n">
-        <v>31.79</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6101,9 +5791,6 @@
       <c r="M109" t="n">
         <v>9582.290000000001</v>
       </c>
-      <c r="N109" t="n">
-        <v>-3.2</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6153,9 +5840,6 @@
       <c r="M110" t="n">
         <v>9582.67</v>
       </c>
-      <c r="N110" t="n">
-        <v>10.85</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6205,9 +5889,6 @@
       <c r="M111" t="n">
         <v>7806.56</v>
       </c>
-      <c r="N111" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6257,9 +5938,6 @@
       <c r="M112" t="n">
         <v>8544.879999999999</v>
       </c>
-      <c r="N112" t="n">
-        <v>3.63</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6309,9 +5987,6 @@
       <c r="M113" t="n">
         <v>8944.5</v>
       </c>
-      <c r="N113" t="n">
-        <v>13.09</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6361,9 +6036,6 @@
       <c r="M114" t="n">
         <v>8080.786666666667</v>
       </c>
-      <c r="N114" t="n">
-        <v>8.59</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6413,9 +6085,6 @@
       <c r="M115" t="n">
         <v>8426.459999999999</v>
       </c>
-      <c r="N115" t="n">
-        <v>12.53</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6465,9 +6134,6 @@
       <c r="M116" t="n">
         <v>7152.56</v>
       </c>
-      <c r="N116" t="n">
-        <v>11.93</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6517,9 +6183,6 @@
       <c r="M117" t="n">
         <v>11536.885</v>
       </c>
-      <c r="N117" t="n">
-        <v>7.16</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6569,9 +6232,6 @@
       <c r="M118" t="n">
         <v>6902.243333333333</v>
       </c>
-      <c r="N118" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6621,7 +6281,6 @@
       <c r="M119" t="n">
         <v>19307.48</v>
       </c>
-      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6671,9 +6330,6 @@
       <c r="M120" t="n">
         <v>19651.475</v>
       </c>
-      <c r="N120" t="n">
-        <v>5.65</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6723,9 +6379,6 @@
       <c r="M121" t="n">
         <v>19040.48</v>
       </c>
-      <c r="N121" t="n">
-        <v>4.58</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6775,9 +6428,6 @@
       <c r="M122" t="n">
         <v>15117.76</v>
       </c>
-      <c r="N122" t="n">
-        <v>10.11</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6827,9 +6477,6 @@
       <c r="M123" t="n">
         <v>17509.99</v>
       </c>
-      <c r="N123" t="n">
-        <v>14.99</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6879,9 +6526,6 @@
       <c r="M124" t="n">
         <v>8301.34</v>
       </c>
-      <c r="N124" t="n">
-        <v>15.32</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6931,9 +6575,6 @@
       <c r="M125" t="n">
         <v>16863.605</v>
       </c>
-      <c r="N125" t="n">
-        <v>14.05</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6983,9 +6624,6 @@
       <c r="M126" t="n">
         <v>17702.885</v>
       </c>
-      <c r="N126" t="n">
-        <v>14.44</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7035,9 +6673,6 @@
       <c r="M127" t="n">
         <v>15011.63</v>
       </c>
-      <c r="N127" t="n">
-        <v>15.16</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7087,9 +6722,6 @@
       <c r="M128" t="n">
         <v>13823.29</v>
       </c>
-      <c r="N128" t="n">
-        <v>11.44</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7139,9 +6771,6 @@
       <c r="M129" t="n">
         <v>17887.39</v>
       </c>
-      <c r="N129" t="n">
-        <v>17.93</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7191,9 +6820,6 @@
       <c r="M130" t="n">
         <v>15872.82</v>
       </c>
-      <c r="N130" t="n">
-        <v>6.01</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7243,9 +6869,6 @@
       <c r="M131" t="n">
         <v>16849.11</v>
       </c>
-      <c r="N131" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7295,7 +6918,6 @@
       <c r="M132" t="n">
         <v>17044.38</v>
       </c>
-      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7345,9 +6967,6 @@
       <c r="M133" t="n">
         <v>9967.52</v>
       </c>
-      <c r="N133" t="n">
-        <v>0.4</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7397,9 +7016,6 @@
       <c r="M134" t="n">
         <v>10504.11</v>
       </c>
-      <c r="N134" t="n">
-        <v>29.27</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7449,9 +7065,6 @@
       <c r="M135" t="n">
         <v>11470.915</v>
       </c>
-      <c r="N135" t="n">
-        <v>-15.83</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7501,9 +7114,6 @@
       <c r="M136" t="n">
         <v>16177.44</v>
       </c>
-      <c r="N136" t="n">
-        <v>17.75</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7553,9 +7163,6 @@
       <c r="M137" t="n">
         <v>14850.01</v>
       </c>
-      <c r="N137" t="n">
-        <v>-1.61</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7605,9 +7212,6 @@
       <c r="M138" t="n">
         <v>13552.49</v>
       </c>
-      <c r="N138" t="n">
-        <v>6.76</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7657,9 +7261,6 @@
       <c r="M139" t="n">
         <v>21046.6</v>
       </c>
-      <c r="N139" t="n">
-        <v>5.7</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7709,9 +7310,6 @@
       <c r="M140" t="n">
         <v>3462.56</v>
       </c>
-      <c r="N140" t="n">
-        <v>6.05</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7761,9 +7359,6 @@
       <c r="M141" t="n">
         <v>14200.65</v>
       </c>
-      <c r="N141" t="n">
-        <v>13.77</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7813,9 +7408,6 @@
       <c r="M142" t="n">
         <v>17462.35666666667</v>
       </c>
-      <c r="N142" t="n">
-        <v>0.31</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7865,9 +7457,6 @@
       <c r="M143" t="n">
         <v>14994.72</v>
       </c>
-      <c r="N143" t="n">
-        <v>14.9</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7917,9 +7506,6 @@
       <c r="M144" t="n">
         <v>13300.14</v>
       </c>
-      <c r="N144" t="n">
-        <v>8.68</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7969,7 +7555,6 @@
       <c r="M145" t="n">
         <v>10586.08</v>
       </c>
-      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8019,9 +7604,6 @@
       <c r="M146" t="n">
         <v>38433.86</v>
       </c>
-      <c r="N146" t="n">
-        <v>-9.890000000000001</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8071,9 +7653,6 @@
       <c r="M147" t="n">
         <v>21872.68</v>
       </c>
-      <c r="N147" t="n">
-        <v>8.1</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8123,9 +7702,6 @@
       <c r="M148" t="n">
         <v>31749.95</v>
       </c>
-      <c r="N148" t="n">
-        <v>-0.62</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8175,9 +7751,6 @@
       <c r="M149" t="n">
         <v>25862.07</v>
       </c>
-      <c r="N149" t="n">
-        <v>-3.57</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8227,9 +7800,6 @@
       <c r="M150" t="n">
         <v>25748.55333333333</v>
       </c>
-      <c r="N150" t="n">
-        <v>3.66</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8279,9 +7849,6 @@
       <c r="M151" t="n">
         <v>17102.59</v>
       </c>
-      <c r="N151" t="n">
-        <v>12.31</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8331,9 +7898,6 @@
       <c r="M152" t="n">
         <v>38403.68</v>
       </c>
-      <c r="N152" t="n">
-        <v>10.32</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8383,9 +7947,6 @@
       <c r="M153" t="n">
         <v>11856.75</v>
       </c>
-      <c r="N153" t="n">
-        <v>11.84</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8435,9 +7996,6 @@
       <c r="M154" t="n">
         <v>34717.215</v>
       </c>
-      <c r="N154" t="n">
-        <v>16.59</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8487,9 +8045,6 @@
       <c r="M155" t="n">
         <v>23538.05</v>
       </c>
-      <c r="N155" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8539,9 +8094,6 @@
       <c r="M156" t="n">
         <v>29719.18</v>
       </c>
-      <c r="N156" t="n">
-        <v>17.73</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8591,9 +8143,6 @@
       <c r="M157" t="n">
         <v>29697.27</v>
       </c>
-      <c r="N157" t="n">
-        <v>9.119999999999999</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8643,7 +8192,6 @@
       <c r="M158" t="n">
         <v>11131.48</v>
       </c>
-      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8693,9 +8241,6 @@
       <c r="M159" t="n">
         <v>10875.925</v>
       </c>
-      <c r="N159" t="n">
-        <v>-1.08</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8745,9 +8290,6 @@
       <c r="M160" t="n">
         <v>10853.4</v>
       </c>
-      <c r="N160" t="n">
-        <v>21.58</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8797,9 +8339,6 @@
       <c r="M161" t="n">
         <v>11367.76</v>
       </c>
-      <c r="N161" t="n">
-        <v>-9.16</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8849,9 +8388,6 @@
       <c r="M162" t="n">
         <v>12692.05</v>
       </c>
-      <c r="N162" t="n">
-        <v>-10.16</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8901,9 +8437,6 @@
       <c r="M163" t="n">
         <v>13312.44</v>
       </c>
-      <c r="N163" t="n">
-        <v>5.22</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8953,9 +8486,6 @@
       <c r="M164" t="n">
         <v>8013.1</v>
       </c>
-      <c r="N164" t="n">
-        <v>19.21</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9005,9 +8535,6 @@
       <c r="M165" t="n">
         <v>9098.870000000001</v>
       </c>
-      <c r="N165" t="n">
-        <v>22.39</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9057,9 +8584,6 @@
       <c r="M166" t="n">
         <v>9943.690000000001</v>
       </c>
-      <c r="N166" t="n">
-        <v>17.44</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9109,9 +8633,6 @@
       <c r="M167" t="n">
         <v>8061.37</v>
       </c>
-      <c r="N167" t="n">
-        <v>23.05</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9161,9 +8682,6 @@
       <c r="M168" t="n">
         <v>10544.54</v>
       </c>
-      <c r="N168" t="n">
-        <v>18.8</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9213,9 +8731,6 @@
       <c r="M169" t="n">
         <v>12674.67333333333</v>
       </c>
-      <c r="N169" t="n">
-        <v>-0.89</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9265,9 +8780,6 @@
       <c r="M170" t="n">
         <v>19710.89</v>
       </c>
-      <c r="N170" t="n">
-        <v>5.9</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9317,9 +8829,6 @@
       <c r="M171" t="n">
         <v>19779.735</v>
       </c>
-      <c r="N171" t="n">
-        <v>4.04</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9369,9 +8878,6 @@
       <c r="M172" t="n">
         <v>19756.5</v>
       </c>
-      <c r="N172" t="n">
-        <v>7.78</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9421,9 +8927,6 @@
       <c r="M173" t="n">
         <v>15697.14</v>
       </c>
-      <c r="N173" t="n">
-        <v>11.92</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9473,9 +8976,6 @@
       <c r="M174" t="n">
         <v>17815.2</v>
       </c>
-      <c r="N174" t="n">
-        <v>13.83</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9525,9 +9025,6 @@
       <c r="M175" t="n">
         <v>19402.78</v>
       </c>
-      <c r="N175" t="n">
-        <v>11.26</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9577,9 +9074,6 @@
       <c r="M176" t="n">
         <v>15971.07</v>
       </c>
-      <c r="N176" t="n">
-        <v>16.11</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9629,9 +9123,6 @@
       <c r="M177" t="n">
         <v>16756.94</v>
       </c>
-      <c r="N177" t="n">
-        <v>12.95</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9681,9 +9172,6 @@
       <c r="M178" t="n">
         <v>20038.82666666666</v>
       </c>
-      <c r="N178" t="n">
-        <v>9.24</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9733,9 +9221,6 @@
       <c r="M179" t="n">
         <v>17067.685</v>
       </c>
-      <c r="N179" t="n">
-        <v>9.73</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9785,9 +9270,6 @@
       <c r="M180" t="n">
         <v>17677.48</v>
       </c>
-      <c r="N180" t="n">
-        <v>9.91</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9837,7 +9319,6 @@
       <c r="M181" t="n">
         <v>9416.059999999999</v>
       </c>
-      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9887,9 +9368,6 @@
       <c r="M182" t="n">
         <v>13061.14</v>
       </c>
-      <c r="N182" t="n">
-        <v>-1.18</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9939,9 +9417,6 @@
       <c r="M183" t="n">
         <v>7902.08</v>
       </c>
-      <c r="N183" t="n">
-        <v>31.79</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9991,9 +9466,6 @@
       <c r="M184" t="n">
         <v>8113.97</v>
       </c>
-      <c r="N184" t="n">
-        <v>-3.31</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10043,9 +9515,6 @@
       <c r="M185" t="n">
         <v>10021.87</v>
       </c>
-      <c r="N185" t="n">
-        <v>10.85</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10095,9 +9564,6 @@
       <c r="M186" t="n">
         <v>9154.105</v>
       </c>
-      <c r="N186" t="n">
-        <v>10.3</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10147,9 +9613,6 @@
       <c r="M187" t="n">
         <v>6965.42</v>
       </c>
-      <c r="N187" t="n">
-        <v>1.84</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10199,9 +9662,6 @@
       <c r="M188" t="n">
         <v>7721.315000000001</v>
       </c>
-      <c r="N188" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10251,9 +9711,6 @@
       <c r="M189" t="n">
         <v>9755.459999999999</v>
       </c>
-      <c r="N189" t="n">
-        <v>12.53</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10303,9 +9760,6 @@
       <c r="M190" t="n">
         <v>11248.99</v>
       </c>
-      <c r="N190" t="n">
-        <v>11.93</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10355,9 +9809,6 @@
       <c r="M191" t="n">
         <v>9378.365</v>
       </c>
-      <c r="N191" t="n">
-        <v>21.91</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10407,9 +9858,6 @@
       <c r="M192" t="n">
         <v>4227.16</v>
       </c>
-      <c r="N192" t="n">
-        <v>7.75</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10459,9 +9907,6 @@
       <c r="M193" t="n">
         <v>7411.716666666667</v>
       </c>
-      <c r="N193" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10511,9 +9956,6 @@
       <c r="M194" t="n">
         <v>13594.32</v>
       </c>
-      <c r="N194" t="n">
-        <v>3.72</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10563,9 +10005,6 @@
       <c r="M195" t="n">
         <v>6572.26</v>
       </c>
-      <c r="N195" t="n">
-        <v>36.17</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10615,9 +10054,6 @@
       <c r="M196" t="n">
         <v>9370.549999999999</v>
       </c>
-      <c r="N196" t="n">
-        <v>5.65</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10667,9 +10103,6 @@
       <c r="M197" t="n">
         <v>12618.77</v>
       </c>
-      <c r="N197" t="n">
-        <v>4.58</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10719,9 +10152,6 @@
       <c r="M198" t="n">
         <v>12093.9675</v>
       </c>
-      <c r="N198" t="n">
-        <v>1.33</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10771,9 +10201,6 @@
       <c r="M199" t="n">
         <v>8658.24</v>
       </c>
-      <c r="N199" t="n">
-        <v>7.72</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10823,9 +10250,6 @@
       <c r="M200" t="n">
         <v>10233.305</v>
       </c>
-      <c r="N200" t="n">
-        <v>14.99</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10875,9 +10299,6 @@
       <c r="M201" t="n">
         <v>8748.68</v>
       </c>
-      <c r="N201" t="n">
-        <v>20.7</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10927,9 +10348,6 @@
       <c r="M202" t="n">
         <v>8155.08</v>
       </c>
-      <c r="N202" t="n">
-        <v>15.32</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10979,9 +10397,6 @@
       <c r="M203" t="n">
         <v>9100.18</v>
       </c>
-      <c r="N203" t="n">
-        <v>14.44</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11031,9 +10446,6 @@
       <c r="M204" t="n">
         <v>16347.35</v>
       </c>
-      <c r="N204" t="n">
-        <v>15.16</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11083,9 +10495,6 @@
       <c r="M205" t="n">
         <v>18427.14</v>
       </c>
-      <c r="N205" t="n">
-        <v>11.44</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11135,9 +10544,6 @@
       <c r="M206" t="n">
         <v>12746.04</v>
       </c>
-      <c r="N206" t="n">
-        <v>6.01</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11187,9 +10593,6 @@
       <c r="M207" t="n">
         <v>9868.67</v>
       </c>
-      <c r="N207" t="n">
-        <v>12.23</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11239,7 +10642,6 @@
       <c r="M208" t="n">
         <v>11621.535</v>
       </c>
-      <c r="N208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -11289,9 +10691,6 @@
       <c r="M209" t="n">
         <v>20808.98</v>
       </c>
-      <c r="N209" t="n">
-        <v>-15.83</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11341,9 +10740,6 @@
       <c r="M210" t="n">
         <v>12138.45</v>
       </c>
-      <c r="N210" t="n">
-        <v>-1.61</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11393,9 +10789,6 @@
       <c r="M211" t="n">
         <v>10163.93</v>
       </c>
-      <c r="N211" t="n">
-        <v>-0.03</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11445,9 +10838,6 @@
       <c r="M212" t="n">
         <v>14548.575</v>
       </c>
-      <c r="N212" t="n">
-        <v>6.76</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11497,9 +10887,6 @@
       <c r="M213" t="n">
         <v>15546.83</v>
       </c>
-      <c r="N213" t="n">
-        <v>6.29</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11549,9 +10936,6 @@
       <c r="M214" t="n">
         <v>12583.28</v>
       </c>
-      <c r="N214" t="n">
-        <v>8.08</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -11601,9 +10985,6 @@
       <c r="M215" t="n">
         <v>8263.41</v>
       </c>
-      <c r="N215" t="n">
-        <v>5.7</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -11653,9 +11034,6 @@
       <c r="M216" t="n">
         <v>9316.049999999999</v>
       </c>
-      <c r="N216" t="n">
-        <v>13.77</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -11705,9 +11083,6 @@
       <c r="M217" t="n">
         <v>10323.29666666667</v>
       </c>
-      <c r="N217" t="n">
-        <v>14.9</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -11757,9 +11132,6 @@
       <c r="M218" t="n">
         <v>8399.24</v>
       </c>
-      <c r="N218" t="n">
-        <v>8.68</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -11809,7 +11181,6 @@
       <c r="M219" t="n">
         <v>23794.65</v>
       </c>
-      <c r="N219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -11859,9 +11230,6 @@
       <c r="M220" t="n">
         <v>18931.545</v>
       </c>
-      <c r="N220" t="n">
-        <v>-9.890000000000001</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -11911,9 +11279,6 @@
       <c r="M221" t="n">
         <v>17363.57</v>
       </c>
-      <c r="N221" t="n">
-        <v>8.1</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -11963,9 +11328,6 @@
       <c r="M222" t="n">
         <v>17480.66</v>
       </c>
-      <c r="N222" t="n">
-        <v>-0.62</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12015,9 +11377,6 @@
       <c r="M223" t="n">
         <v>17231.25</v>
       </c>
-      <c r="N223" t="n">
-        <v>0.38</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12067,9 +11426,6 @@
       <c r="M224" t="n">
         <v>9569.65</v>
       </c>
-      <c r="N224" t="n">
-        <v>3.66</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12119,9 +11475,6 @@
       <c r="M225" t="n">
         <v>24189.565</v>
       </c>
-      <c r="N225" t="n">
-        <v>-6.55</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12171,9 +11524,6 @@
       <c r="M226" t="n">
         <v>23805.73</v>
       </c>
-      <c r="N226" t="n">
-        <v>10.32</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12223,9 +11573,6 @@
       <c r="M227" t="n">
         <v>14797.08</v>
       </c>
-      <c r="N227" t="n">
-        <v>11.84</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12275,9 +11622,6 @@
       <c r="M228" t="n">
         <v>13153.665</v>
       </c>
-      <c r="N228" t="n">
-        <v>16.59</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12327,9 +11671,6 @@
       <c r="M229" t="n">
         <v>24056.81</v>
       </c>
-      <c r="N229" t="n">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12379,9 +11720,6 @@
       <c r="M230" t="n">
         <v>8946.67</v>
       </c>
-      <c r="N230" t="n">
-        <v>17.73</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12430,9 +11768,6 @@
       </c>
       <c r="M231" t="n">
         <v>17929.45666666667</v>
-      </c>
-      <c r="N231" t="n">
-        <v>9.119999999999999</v>
       </c>
     </row>
   </sheetData>
